--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA286F-8C7D-45E6-9FFC-91122C9EB401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE51E6-C4AB-4411-A861-00B0C859F1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7254" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="1234">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3786,6 +3786,9 @@
   </si>
   <si>
     <t>opdracht_10 en 11</t>
+  </si>
+  <si>
+    <t>opdracht_12</t>
   </si>
 </sst>
 </file>
@@ -5311,23 +5314,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N141" sqref="N141"/>
+      <selection pane="bottomLeft" activeCell="O171" sqref="O171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>453</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>2</v>
       </c>
@@ -5417,7 +5420,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -5460,7 +5463,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -5503,7 +5506,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -5546,7 +5549,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -5589,7 +5592,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>2</v>
       </c>
@@ -5632,7 +5635,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -5675,7 +5678,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -5718,7 +5721,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -5761,7 +5764,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>2</v>
       </c>
@@ -5804,7 +5807,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -5847,7 +5850,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>2</v>
       </c>
@@ -5890,7 +5893,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>2</v>
       </c>
@@ -5933,7 +5936,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>2</v>
       </c>
@@ -5976,7 +5979,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>2</v>
       </c>
@@ -6019,7 +6022,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>2</v>
       </c>
@@ -6062,7 +6065,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>2</v>
       </c>
@@ -6105,7 +6108,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>2</v>
       </c>
@@ -6148,7 +6151,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>4</v>
       </c>
@@ -6193,7 +6196,7 @@
       </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>4</v>
       </c>
@@ -6238,7 +6241,7 @@
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>4</v>
       </c>
@@ -6283,7 +6286,7 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>4</v>
       </c>
@@ -6328,7 +6331,7 @@
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>4</v>
       </c>
@@ -6373,7 +6376,7 @@
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>4</v>
       </c>
@@ -6418,7 +6421,7 @@
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>4</v>
       </c>
@@ -6463,7 +6466,7 @@
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>4</v>
       </c>
@@ -6508,7 +6511,7 @@
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
         <v>4</v>
       </c>
@@ -6553,7 +6556,7 @@
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>4</v>
       </c>
@@ -6598,7 +6601,7 @@
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>4</v>
       </c>
@@ -6643,7 +6646,7 @@
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>4</v>
       </c>
@@ -6688,7 +6691,7 @@
       </c>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>4</v>
       </c>
@@ -6733,7 +6736,7 @@
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>4</v>
       </c>
@@ -6778,7 +6781,7 @@
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
         <v>4</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
         <v>4</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>1</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
         <v>1</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>1</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
         <v>1</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
         <v>1</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
         <v>1</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
         <v>1</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
         <v>1</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
         <v>1</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
         <v>1</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
         <v>1</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
         <v>1</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
         <v>1</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
         <v>1</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
         <v>1</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
         <v>1</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
         <v>1</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
         <v>1</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
         <v>1</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
         <v>1</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>1</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27">
         <v>1</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27">
         <v>1</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27">
         <v>1</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27">
         <v>1</v>
       </c>
@@ -8041,7 +8044,7 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27">
         <v>1</v>
       </c>
@@ -8084,7 +8087,7 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27">
         <v>1</v>
       </c>
@@ -8127,7 +8130,7 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>2</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>2</v>
       </c>
@@ -8217,7 +8220,7 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>2</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>2</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>2</v>
       </c>
@@ -8358,7 +8361,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>2</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>2</v>
       </c>
@@ -8448,7 +8451,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>2</v>
       </c>
@@ -8491,7 +8494,7 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>2</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>2</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>2</v>
       </c>
@@ -8628,7 +8631,7 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
         <v>2</v>
       </c>
@@ -8671,7 +8674,7 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="30">
         <v>2</v>
       </c>
@@ -8718,7 +8721,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30">
         <v>2</v>
       </c>
@@ -8761,7 +8764,7 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <v>2</v>
       </c>
@@ -8804,7 +8807,7 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30">
         <v>2</v>
       </c>
@@ -8847,7 +8850,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30">
         <v>2</v>
       </c>
@@ -8890,7 +8893,7 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30">
         <v>2</v>
       </c>
@@ -8933,7 +8936,7 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30">
         <v>2</v>
       </c>
@@ -8976,7 +8979,7 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30">
         <v>2</v>
       </c>
@@ -9019,7 +9022,7 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="30">
         <v>2</v>
       </c>
@@ -9062,7 +9065,7 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30">
         <v>2</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>2</v>
       </c>
@@ -9152,7 +9155,7 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="29">
         <v>2</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>2</v>
       </c>
@@ -9242,7 +9245,7 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27">
         <v>2</v>
       </c>
@@ -9289,7 +9292,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="27">
         <v>2</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27">
         <v>2</v>
       </c>
@@ -9383,7 +9386,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27">
         <v>2</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="27">
         <v>2</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27">
         <v>2</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27">
         <v>2</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27">
         <v>2</v>
       </c>
@@ -9618,7 +9621,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27">
         <v>2</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27">
         <v>2</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27">
         <v>2</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27">
         <v>2</v>
       </c>
@@ -9806,7 +9809,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
         <v>2</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>2</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
         <v>2</v>
       </c>
@@ -9947,7 +9950,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="30">
         <v>2</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30">
         <v>2</v>
       </c>
@@ -10037,7 +10040,7 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="30">
         <v>2</v>
       </c>
@@ -10080,7 +10083,7 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30">
         <v>2</v>
       </c>
@@ -10123,7 +10126,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
         <v>2</v>
       </c>
@@ -10166,7 +10169,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="30">
         <v>2</v>
       </c>
@@ -10209,7 +10212,7 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="31">
         <v>2</v>
       </c>
@@ -10252,7 +10255,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="30">
         <v>2</v>
       </c>
@@ -10295,7 +10298,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <v>2</v>
       </c>
@@ -10342,7 +10345,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="30">
         <v>2</v>
       </c>
@@ -10385,7 +10388,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="30">
         <v>2</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30">
         <v>2</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
         <v>2</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
         <v>2</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="30">
         <v>2</v>
       </c>
@@ -10616,7 +10619,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="30">
         <v>2</v>
       </c>
@@ -10659,7 +10662,7 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="30">
         <v>2</v>
       </c>
@@ -10706,7 +10709,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="30">
         <v>2</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="30">
         <v>2</v>
       </c>
@@ -10800,7 +10803,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="29">
         <v>2</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>2</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="29">
         <v>2</v>
       </c>
@@ -10937,7 +10940,7 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="29">
         <v>2</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="29">
         <v>2</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="29">
         <v>2</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="29">
         <v>2</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="29">
         <v>2</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="29">
         <v>2</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="29">
         <v>2</v>
       </c>
@@ -11262,7 +11265,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="29">
         <v>2</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="29">
         <v>2</v>
       </c>
@@ -11352,7 +11355,7 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="29">
         <v>2</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="29">
         <v>2</v>
       </c>
@@ -11446,7 +11449,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="29">
         <v>2</v>
       </c>
@@ -11489,7 +11492,7 @@
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="29">
         <v>2</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="27">
         <v>5</v>
       </c>
@@ -11578,7 +11581,7 @@
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="27">
         <v>5</v>
       </c>
@@ -11621,11 +11624,11 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="27">
         <v>5</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="42" t="s">
         <v>52</v>
       </c>
       <c r="C140" s="22" t="s">
@@ -11664,7 +11667,7 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="27">
         <v>5</v>
       </c>
@@ -11711,7 +11714,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="27">
         <v>5</v>
       </c>
@@ -11754,11 +11757,11 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
     </row>
-    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="27">
         <v>5</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C143" s="22" t="s">
@@ -11797,7 +11800,7 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="29">
         <v>2</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="29">
         <v>2</v>
       </c>
@@ -11887,7 +11890,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="29">
         <v>2</v>
       </c>
@@ -11934,7 +11937,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29">
         <v>2</v>
       </c>
@@ -11981,7 +11984,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="29">
         <v>2</v>
       </c>
@@ -12028,7 +12031,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="29">
         <v>2</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29">
         <v>2</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="29">
         <v>2</v>
       </c>
@@ -12165,7 +12168,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="29">
         <v>2</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="29">
         <v>2</v>
       </c>
@@ -12255,7 +12258,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="29">
         <v>2</v>
       </c>
@@ -12298,7 +12301,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="29">
         <v>2</v>
       </c>
@@ -12345,7 +12348,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="29">
         <v>2</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>2</v>
       </c>
@@ -12439,7 +12442,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>2</v>
       </c>
@@ -12480,7 +12483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>2</v>
       </c>
@@ -12527,7 +12530,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="29">
         <v>2</v>
       </c>
@@ -12570,7 +12573,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>2</v>
       </c>
@@ -12613,7 +12616,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>2</v>
       </c>
@@ -12660,7 +12663,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>2</v>
       </c>
@@ -12703,7 +12706,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="28">
         <v>5</v>
       </c>
@@ -12746,7 +12749,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="28">
         <v>5</v>
       </c>
@@ -12789,7 +12792,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28">
         <v>5</v>
       </c>
@@ -12836,7 +12839,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28">
         <v>5</v>
       </c>
@@ -12883,7 +12886,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28">
         <v>5</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28">
         <v>5</v>
       </c>
@@ -12973,7 +12976,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="27">
         <v>5</v>
       </c>
@@ -13013,10 +13016,14 @@
       <c r="M170" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
-    </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N170" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O170" s="11" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28">
         <v>5</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28">
         <v>5</v>
       </c>
@@ -13104,7 +13111,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="28">
         <v>5</v>
       </c>
@@ -13147,7 +13154,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="28">
         <v>5</v>
       </c>
@@ -13190,7 +13197,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="28">
         <v>5</v>
       </c>
@@ -13233,7 +13240,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28">
         <v>5</v>
       </c>
@@ -13276,7 +13283,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28">
         <v>5</v>
       </c>
@@ -13319,7 +13326,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28">
         <v>5</v>
       </c>
@@ -13362,7 +13369,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28">
         <v>5</v>
       </c>
@@ -13405,7 +13412,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="28">
         <v>5</v>
       </c>
@@ -13448,7 +13455,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28">
         <v>5</v>
       </c>
@@ -13491,7 +13498,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28">
         <v>5</v>
       </c>
@@ -13534,7 +13541,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="28">
         <v>5</v>
       </c>
@@ -13577,7 +13584,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="28">
         <v>5</v>
       </c>
@@ -13620,7 +13627,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="28">
         <v>5</v>
       </c>
@@ -13663,7 +13670,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="28">
         <v>5</v>
       </c>
@@ -13706,7 +13713,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="28">
         <v>5</v>
       </c>
@@ -13749,7 +13756,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="28">
         <v>5</v>
       </c>
@@ -13792,7 +13799,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="28">
         <v>5</v>
       </c>
@@ -13835,7 +13842,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="28">
         <v>5</v>
       </c>
@@ -13878,7 +13885,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="28">
         <v>5</v>
       </c>
@@ -13921,7 +13928,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="28">
         <v>5</v>
       </c>
@@ -13964,7 +13971,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="28">
         <v>5</v>
       </c>
@@ -14007,7 +14014,7 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="28">
         <v>5</v>
       </c>
@@ -14050,7 +14057,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="28">
         <v>5</v>
       </c>
@@ -14093,7 +14100,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="28">
         <v>5</v>
       </c>
@@ -14136,7 +14143,7 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="28">
         <v>5</v>
       </c>
@@ -14179,7 +14186,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="28">
         <v>5</v>
       </c>
@@ -14222,7 +14229,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="28">
         <v>5</v>
       </c>
@@ -14265,7 +14272,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="28">
         <v>5</v>
       </c>
@@ -14308,7 +14315,7 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="28">
         <v>5</v>
       </c>
@@ -14351,7 +14358,7 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="28">
         <v>5</v>
       </c>
@@ -14394,7 +14401,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="28">
         <v>5</v>
       </c>
@@ -14437,7 +14444,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="28">
         <v>5</v>
       </c>
@@ -14480,7 +14487,7 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="28">
         <v>5</v>
       </c>
@@ -14523,7 +14530,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="28">
         <v>5</v>
       </c>
@@ -14566,7 +14573,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="28">
         <v>5</v>
       </c>
@@ -14609,7 +14616,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="28">
         <v>5</v>
       </c>
@@ -14652,7 +14659,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="28">
         <v>5</v>
       </c>
@@ -14695,7 +14702,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="28">
         <v>5</v>
       </c>
@@ -14738,7 +14745,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="28">
         <v>5</v>
       </c>
@@ -14781,7 +14788,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="28">
         <v>5</v>
       </c>
@@ -14824,7 +14831,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="28">
         <v>5</v>
       </c>
@@ -14867,7 +14874,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="28">
         <v>5</v>
       </c>
@@ -14910,7 +14917,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="28">
         <v>5</v>
       </c>
@@ -14953,7 +14960,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="28">
         <v>5</v>
       </c>
@@ -14996,7 +15003,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="28">
         <v>5</v>
       </c>
@@ -15039,7 +15046,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="28">
         <v>5</v>
       </c>
@@ -15082,7 +15089,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="28">
         <v>5</v>
       </c>
@@ -15125,7 +15132,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="28">
         <v>1</v>
       </c>
@@ -15172,7 +15179,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="28">
         <v>5</v>
       </c>
@@ -15215,7 +15222,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="30">
         <v>8</v>
       </c>
@@ -15258,7 +15265,7 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="30">
         <v>8</v>
       </c>
@@ -15301,7 +15308,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="30">
         <v>8</v>
       </c>
@@ -15344,7 +15351,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="30">
         <v>8</v>
       </c>
@@ -15387,7 +15394,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="30">
         <v>8</v>
       </c>
@@ -15430,7 +15437,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="30">
         <v>8</v>
       </c>
@@ -15473,7 +15480,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="30">
         <v>8</v>
       </c>
@@ -15516,7 +15523,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="30">
         <v>8</v>
       </c>
@@ -15559,7 +15566,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="30">
         <v>8</v>
       </c>
@@ -15602,7 +15609,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="30">
         <v>8</v>
       </c>
@@ -15645,7 +15652,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="30">
         <v>8</v>
       </c>
@@ -15688,7 +15695,7 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="30">
         <v>8</v>
       </c>
@@ -15731,7 +15738,7 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="30">
         <v>8</v>
       </c>
@@ -15774,7 +15781,7 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="30">
         <v>8</v>
       </c>
@@ -15817,7 +15824,7 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="30">
         <v>8</v>
       </c>
@@ -15860,7 +15867,7 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="30">
         <v>8</v>
       </c>
@@ -15903,7 +15910,7 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="30">
         <v>8</v>
       </c>
@@ -15946,7 +15953,7 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="30">
         <v>8</v>
       </c>
@@ -15989,7 +15996,7 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="30">
         <v>8</v>
       </c>
@@ -16032,7 +16039,7 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="30">
         <v>8</v>
       </c>
@@ -16075,7 +16082,7 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
     </row>
-    <row r="242" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="30">
         <v>8</v>
       </c>
@@ -16118,7 +16125,7 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
     </row>
-    <row r="243" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="30">
         <v>8</v>
       </c>
@@ -16161,7 +16168,7 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
     </row>
-    <row r="244" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="30">
         <v>8</v>
       </c>
@@ -16204,7 +16211,7 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
     </row>
-    <row r="245" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="30">
         <v>8</v>
       </c>
@@ -16247,7 +16254,7 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
     </row>
-    <row r="246" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="30">
         <v>8</v>
       </c>
@@ -16290,7 +16297,7 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
     </row>
-    <row r="247" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="30">
         <v>8</v>
       </c>
@@ -16333,7 +16340,7 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
     </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="30">
         <v>8</v>
       </c>
@@ -16376,7 +16383,7 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="30">
         <v>8</v>
       </c>
@@ -16419,7 +16426,7 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="30">
         <v>8</v>
       </c>
@@ -16462,7 +16469,7 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
     </row>
-    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="30">
         <v>8</v>
       </c>
@@ -16505,7 +16512,7 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
     </row>
-    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="30">
         <v>8</v>
       </c>
@@ -16548,7 +16555,7 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
     </row>
-    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="30">
         <v>8</v>
       </c>
@@ -16591,7 +16598,7 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
     </row>
-    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="29">
         <v>8</v>
       </c>
@@ -16634,7 +16641,7 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
     </row>
-    <row r="255" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="30">
         <v>8</v>
       </c>
@@ -16677,7 +16684,7 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
     </row>
-    <row r="256" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="30">
         <v>8</v>
       </c>
@@ -16720,7 +16727,7 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="30">
         <v>8</v>
       </c>
@@ -16763,7 +16770,7 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="30">
         <v>8</v>
       </c>
@@ -16806,7 +16813,7 @@
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="30">
         <v>8</v>
       </c>
@@ -16849,7 +16856,7 @@
       <c r="N259" s="11"/>
       <c r="O259" s="11"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="30">
         <v>8</v>
       </c>
@@ -16892,7 +16899,7 @@
       <c r="N260" s="11"/>
       <c r="O260" s="11"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="30">
         <v>8</v>
       </c>
@@ -16935,7 +16942,7 @@
       <c r="N261" s="11"/>
       <c r="O261" s="11"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="30">
         <v>8</v>
       </c>
@@ -16978,7 +16985,7 @@
       <c r="N262" s="11"/>
       <c r="O262" s="11"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="30">
         <v>8</v>
       </c>
@@ -17021,7 +17028,7 @@
       <c r="N263" s="11"/>
       <c r="O263" s="11"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="29">
         <v>8</v>
       </c>
@@ -17064,7 +17071,7 @@
       <c r="N264" s="11"/>
       <c r="O264" s="11"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="30">
         <v>8</v>
       </c>
@@ -17107,7 +17114,7 @@
       <c r="N265" s="11"/>
       <c r="O265" s="11"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="30">
         <v>8</v>
       </c>
@@ -17150,7 +17157,7 @@
       <c r="N266" s="11"/>
       <c r="O266" s="11"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="30">
         <v>8</v>
       </c>
@@ -17193,7 +17200,7 @@
       <c r="N267" s="11"/>
       <c r="O267" s="11"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="30">
         <v>8</v>
       </c>
@@ -17236,7 +17243,7 @@
       <c r="N268" s="11"/>
       <c r="O268" s="11"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="30">
         <v>8</v>
       </c>
@@ -17279,7 +17286,7 @@
       <c r="N269" s="11"/>
       <c r="O269" s="11"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="30">
         <v>8</v>
       </c>
@@ -17322,7 +17329,7 @@
       <c r="N270" s="11"/>
       <c r="O270" s="11"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="30">
         <v>8</v>
       </c>
@@ -17365,7 +17372,7 @@
       <c r="N271" s="11"/>
       <c r="O271" s="11"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="30">
         <v>8</v>
       </c>
@@ -17408,7 +17415,7 @@
       <c r="N272" s="11"/>
       <c r="O272" s="11"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="30">
         <v>8</v>
       </c>
@@ -17451,7 +17458,7 @@
       <c r="N273" s="11"/>
       <c r="O273" s="11"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="30">
         <v>8</v>
       </c>
@@ -17494,7 +17501,7 @@
       <c r="N274" s="11"/>
       <c r="O274" s="11"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="30">
         <v>8</v>
       </c>
@@ -17537,7 +17544,7 @@
       <c r="N275" s="11"/>
       <c r="O275" s="11"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="30">
         <v>8</v>
       </c>
@@ -17580,7 +17587,7 @@
       <c r="N276" s="11"/>
       <c r="O276" s="11"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="30">
         <v>8</v>
       </c>
@@ -17623,7 +17630,7 @@
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="30">
         <v>8</v>
       </c>
@@ -17666,7 +17673,7 @@
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="30">
         <v>8</v>
       </c>
@@ -17709,7 +17716,7 @@
       <c r="N279" s="11"/>
       <c r="O279" s="11"/>
     </row>
-    <row r="280" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="30">
         <v>8</v>
       </c>
@@ -17752,7 +17759,7 @@
       <c r="N280" s="11"/>
       <c r="O280" s="11"/>
     </row>
-    <row r="281" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="30">
         <v>8</v>
       </c>
@@ -17795,7 +17802,7 @@
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="30">
         <v>8</v>
       </c>
@@ -17838,7 +17845,7 @@
       <c r="N282" s="11"/>
       <c r="O282" s="11"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="30">
         <v>8</v>
       </c>
@@ -17881,7 +17888,7 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30">
         <v>8</v>
       </c>
@@ -17924,7 +17931,7 @@
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
     </row>
-    <row r="285" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="30">
         <v>8</v>
       </c>
@@ -17967,7 +17974,7 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="30">
         <v>8</v>
       </c>
@@ -18010,7 +18017,7 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="30">
         <v>8</v>
       </c>
@@ -18053,7 +18060,7 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="30">
         <v>8</v>
       </c>
@@ -18096,7 +18103,7 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="30">
         <v>8</v>
       </c>
@@ -18139,7 +18146,7 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="30">
         <v>8</v>
       </c>
@@ -18182,7 +18189,7 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="30">
         <v>8</v>
       </c>
@@ -18225,7 +18232,7 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="30">
         <v>8</v>
       </c>
@@ -18268,7 +18275,7 @@
       <c r="N292" s="11"/>
       <c r="O292" s="11"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="30">
         <v>8</v>
       </c>
@@ -18311,7 +18318,7 @@
       <c r="N293" s="11"/>
       <c r="O293" s="11"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="30">
         <v>8</v>
       </c>
@@ -18354,7 +18361,7 @@
       <c r="N294" s="11"/>
       <c r="O294" s="11"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="30">
         <v>8</v>
       </c>
@@ -18397,7 +18404,7 @@
       <c r="N295" s="11"/>
       <c r="O295" s="11"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="28">
         <v>8</v>
       </c>
@@ -18440,7 +18447,7 @@
       <c r="N296" s="11"/>
       <c r="O296" s="11"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="30">
         <v>8</v>
       </c>
@@ -18483,7 +18490,7 @@
       <c r="N297" s="11"/>
       <c r="O297" s="11"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="30">
         <v>8</v>
       </c>
@@ -18526,7 +18533,7 @@
       <c r="N298" s="11"/>
       <c r="O298" s="11"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="30">
         <v>8</v>
       </c>
@@ -18569,7 +18576,7 @@
       <c r="N299" s="11"/>
       <c r="O299" s="11"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="30">
         <v>8</v>
       </c>
@@ -18612,7 +18619,7 @@
       <c r="N300" s="11"/>
       <c r="O300" s="11"/>
     </row>
-    <row r="301" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="30">
         <v>8</v>
       </c>
@@ -18655,7 +18662,7 @@
       <c r="N301" s="11"/>
       <c r="O301" s="11"/>
     </row>
-    <row r="302" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="30">
         <v>8</v>
       </c>
@@ -18698,7 +18705,7 @@
       <c r="N302" s="11"/>
       <c r="O302" s="11"/>
     </row>
-    <row r="303" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="30">
         <v>8</v>
       </c>
@@ -18741,7 +18748,7 @@
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="30">
         <v>8</v>
       </c>
@@ -18784,7 +18791,7 @@
       <c r="N304" s="11"/>
       <c r="O304" s="11"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="30">
         <v>8</v>
       </c>
@@ -18827,7 +18834,7 @@
       <c r="N305" s="11"/>
       <c r="O305" s="11"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="30">
         <v>8</v>
       </c>
@@ -18870,7 +18877,7 @@
       <c r="N306" s="11"/>
       <c r="O306" s="11"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="30">
         <v>8</v>
       </c>
@@ -18913,7 +18920,7 @@
       <c r="N307" s="11"/>
       <c r="O307" s="11"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="30">
         <v>8</v>
       </c>
@@ -18956,7 +18963,7 @@
       <c r="N308" s="11"/>
       <c r="O308" s="11"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="30">
         <v>8</v>
       </c>
@@ -18999,7 +19006,7 @@
       <c r="N309" s="11"/>
       <c r="O309" s="11"/>
     </row>
-    <row r="310" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="30">
         <v>8</v>
       </c>
@@ -19042,7 +19049,7 @@
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="30">
         <v>8</v>
       </c>
@@ -19085,7 +19092,7 @@
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="30">
         <v>8</v>
       </c>
@@ -19128,7 +19135,7 @@
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="30">
         <v>8</v>
       </c>
@@ -19171,7 +19178,7 @@
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="30">
         <v>8</v>
       </c>
@@ -19214,7 +19221,7 @@
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="30">
         <v>8</v>
       </c>
@@ -19257,7 +19264,7 @@
       <c r="N315" s="11"/>
       <c r="O315" s="11"/>
     </row>
-    <row r="316" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="30">
         <v>8</v>
       </c>
@@ -19300,7 +19307,7 @@
       <c r="N316" s="11"/>
       <c r="O316" s="11"/>
     </row>
-    <row r="317" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="30">
         <v>8</v>
       </c>
@@ -19343,7 +19350,7 @@
       <c r="N317" s="11"/>
       <c r="O317" s="11"/>
     </row>
-    <row r="318" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="28">
         <v>8</v>
       </c>
@@ -19386,7 +19393,7 @@
       <c r="N318" s="11"/>
       <c r="O318" s="11"/>
     </row>
-    <row r="319" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="28">
         <v>8</v>
       </c>
@@ -19429,7 +19436,7 @@
       <c r="N319" s="11"/>
       <c r="O319" s="11"/>
     </row>
-    <row r="320" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="28">
         <v>8</v>
       </c>
@@ -19472,7 +19479,7 @@
       <c r="N320" s="11"/>
       <c r="O320" s="11"/>
     </row>
-    <row r="321" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="28">
         <v>8</v>
       </c>
@@ -19515,7 +19522,7 @@
       <c r="N321" s="11"/>
       <c r="O321" s="11"/>
     </row>
-    <row r="322" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="28">
         <v>8</v>
       </c>
@@ -19558,7 +19565,7 @@
       <c r="N322" s="11"/>
       <c r="O322" s="11"/>
     </row>
-    <row r="323" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="28">
         <v>8</v>
       </c>
@@ -19601,7 +19608,7 @@
       <c r="N323" s="11"/>
       <c r="O323" s="11"/>
     </row>
-    <row r="324" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="28">
         <v>8</v>
       </c>
@@ -19644,7 +19651,7 @@
       <c r="N324" s="11"/>
       <c r="O324" s="11"/>
     </row>
-    <row r="325" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="28">
         <v>8</v>
       </c>
@@ -19687,7 +19694,7 @@
       <c r="N325" s="11"/>
       <c r="O325" s="11"/>
     </row>
-    <row r="326" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="28">
         <v>8</v>
       </c>
@@ -19730,7 +19737,7 @@
       <c r="N326" s="11"/>
       <c r="O326" s="11"/>
     </row>
-    <row r="327" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="28">
         <v>8</v>
       </c>
@@ -19773,7 +19780,7 @@
       <c r="N327" s="11"/>
       <c r="O327" s="11"/>
     </row>
-    <row r="328" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="28">
         <v>8</v>
       </c>
@@ -19816,7 +19823,7 @@
       <c r="N328" s="11"/>
       <c r="O328" s="11"/>
     </row>
-    <row r="329" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="28">
         <v>8</v>
       </c>
@@ -19859,7 +19866,7 @@
       <c r="N329" s="11"/>
       <c r="O329" s="11"/>
     </row>
-    <row r="330" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="28">
         <v>8</v>
       </c>
@@ -19902,7 +19909,7 @@
       <c r="N330" s="11"/>
       <c r="O330" s="11"/>
     </row>
-    <row r="331" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="28">
         <v>8</v>
       </c>
@@ -19945,7 +19952,7 @@
       <c r="N331" s="11"/>
       <c r="O331" s="11"/>
     </row>
-    <row r="332" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="28">
         <v>8</v>
       </c>
@@ -19988,7 +19995,7 @@
       <c r="N332" s="11"/>
       <c r="O332" s="11"/>
     </row>
-    <row r="333" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="28">
         <v>8</v>
       </c>
@@ -20031,7 +20038,7 @@
       <c r="N333" s="11"/>
       <c r="O333" s="11"/>
     </row>
-    <row r="334" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="28">
         <v>8</v>
       </c>
@@ -20074,7 +20081,7 @@
       <c r="N334" s="11"/>
       <c r="O334" s="11"/>
     </row>
-    <row r="335" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="28">
         <v>8</v>
       </c>
@@ -20117,7 +20124,7 @@
       <c r="N335" s="11"/>
       <c r="O335" s="11"/>
     </row>
-    <row r="336" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="28">
         <v>8</v>
       </c>
@@ -20160,7 +20167,7 @@
       <c r="N336" s="11"/>
       <c r="O336" s="11"/>
     </row>
-    <row r="337" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="38">
         <v>2</v>
       </c>
@@ -20203,7 +20210,7 @@
       <c r="N337" s="11"/>
       <c r="O337" s="11"/>
     </row>
-    <row r="338" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="38">
         <v>2</v>
       </c>
@@ -20246,7 +20253,7 @@
       <c r="N338" s="11"/>
       <c r="O338" s="11"/>
     </row>
-    <row r="339" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="38">
         <v>2</v>
       </c>
@@ -20289,7 +20296,7 @@
       <c r="N339" s="11"/>
       <c r="O339" s="11"/>
     </row>
-    <row r="340" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="38">
         <v>2</v>
       </c>
@@ -20332,7 +20339,7 @@
       <c r="N340" s="11"/>
       <c r="O340" s="11"/>
     </row>
-    <row r="341" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <v>2</v>
       </c>
@@ -20375,7 +20382,7 @@
       <c r="N341" s="11"/>
       <c r="O341" s="11"/>
     </row>
-    <row r="342" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="38">
         <v>2</v>
       </c>
@@ -20418,7 +20425,7 @@
       <c r="N342" s="11"/>
       <c r="O342" s="11"/>
     </row>
-    <row r="343" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
         <v>2</v>
       </c>
@@ -20461,7 +20468,7 @@
       <c r="N343" s="11"/>
       <c r="O343" s="11"/>
     </row>
-    <row r="344" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="21">
         <v>2</v>
       </c>
@@ -20504,7 +20511,7 @@
       <c r="N344" s="11"/>
       <c r="O344" s="11"/>
     </row>
-    <row r="345" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="38">
         <v>2</v>
       </c>
@@ -20547,7 +20554,7 @@
       <c r="N345" s="11"/>
       <c r="O345" s="11"/>
     </row>
-    <row r="346" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="38">
         <v>2</v>
       </c>
@@ -20590,7 +20597,7 @@
       <c r="N346" s="11"/>
       <c r="O346" s="11"/>
     </row>
-    <row r="347" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="38">
         <v>2</v>
       </c>
@@ -20633,7 +20640,7 @@
       <c r="N347" s="11"/>
       <c r="O347" s="11"/>
     </row>
-    <row r="348" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="38">
         <v>2</v>
       </c>
@@ -20676,7 +20683,7 @@
       <c r="N348" s="11"/>
       <c r="O348" s="11"/>
     </row>
-    <row r="349" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="38">
         <v>2</v>
       </c>
@@ -20719,7 +20726,7 @@
       <c r="N349" s="11"/>
       <c r="O349" s="11"/>
     </row>
-    <row r="350" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="38">
         <v>2</v>
       </c>
@@ -20762,7 +20769,7 @@
       <c r="N350" s="11"/>
       <c r="O350" s="11"/>
     </row>
-    <row r="351" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="38">
         <v>2</v>
       </c>
@@ -20805,7 +20812,7 @@
       <c r="N351" s="11"/>
       <c r="O351" s="11"/>
     </row>
-    <row r="352" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="38">
         <v>2</v>
       </c>
@@ -20848,7 +20855,7 @@
       <c r="N352" s="11"/>
       <c r="O352" s="11"/>
     </row>
-    <row r="353" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="38">
         <v>2</v>
       </c>
@@ -20891,7 +20898,7 @@
       <c r="N353" s="11"/>
       <c r="O353" s="11"/>
     </row>
-    <row r="354" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="38">
         <v>2</v>
       </c>
@@ -20934,7 +20941,7 @@
       <c r="N354" s="11"/>
       <c r="O354" s="11"/>
     </row>
-    <row r="355" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="38">
         <v>2</v>
       </c>
@@ -20977,7 +20984,7 @@
       <c r="N355" s="11"/>
       <c r="O355" s="11"/>
     </row>
-    <row r="356" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="38">
         <v>2</v>
       </c>
@@ -21020,7 +21027,7 @@
       <c r="N356" s="11"/>
       <c r="O356" s="11"/>
     </row>
-    <row r="357" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="38">
         <v>2</v>
       </c>
@@ -21063,7 +21070,7 @@
       <c r="N357" s="11"/>
       <c r="O357" s="11"/>
     </row>
-    <row r="358" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="38">
         <v>2</v>
       </c>
@@ -21106,7 +21113,7 @@
       <c r="N358" s="11"/>
       <c r="O358" s="11"/>
     </row>
-    <row r="359" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="38">
         <v>2</v>
       </c>
@@ -21149,7 +21156,7 @@
       <c r="N359" s="11"/>
       <c r="O359" s="11"/>
     </row>
-    <row r="360" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="38">
         <v>2</v>
       </c>
@@ -21192,7 +21199,7 @@
       <c r="N360" s="11"/>
       <c r="O360" s="11"/>
     </row>
-    <row r="361" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="38">
         <v>2</v>
       </c>
@@ -21235,7 +21242,7 @@
       <c r="N361" s="11"/>
       <c r="O361" s="11"/>
     </row>
-    <row r="362" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="38">
         <v>2</v>
       </c>
@@ -21278,7 +21285,7 @@
       <c r="N362" s="11"/>
       <c r="O362" s="11"/>
     </row>
-    <row r="363" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="38">
         <v>2</v>
       </c>
@@ -21321,7 +21328,7 @@
       <c r="N363" s="11"/>
       <c r="O363" s="11"/>
     </row>
-    <row r="364" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="38">
         <v>2</v>
       </c>
@@ -21364,7 +21371,7 @@
       <c r="N364" s="11"/>
       <c r="O364" s="11"/>
     </row>
-    <row r="365" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="38">
         <v>2</v>
       </c>
@@ -21407,7 +21414,7 @@
       <c r="N365" s="11"/>
       <c r="O365" s="11"/>
     </row>
-    <row r="366" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="38">
         <v>2</v>
       </c>
@@ -21450,7 +21457,7 @@
       <c r="N366" s="11"/>
       <c r="O366" s="11"/>
     </row>
-    <row r="367" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="38">
         <v>2</v>
       </c>
@@ -21493,7 +21500,7 @@
       <c r="N367" s="11"/>
       <c r="O367" s="11"/>
     </row>
-    <row r="368" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="38">
         <v>2</v>
       </c>
@@ -21536,7 +21543,7 @@
       <c r="N368" s="11"/>
       <c r="O368" s="11"/>
     </row>
-    <row r="369" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="38">
         <v>2</v>
       </c>
@@ -21579,7 +21586,7 @@
       <c r="N369" s="11"/>
       <c r="O369" s="11"/>
     </row>
-    <row r="370" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="38">
         <v>2</v>
       </c>
@@ -21622,7 +21629,7 @@
       <c r="N370" s="11"/>
       <c r="O370" s="11"/>
     </row>
-    <row r="371" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="38">
         <v>2</v>
       </c>
@@ -21665,7 +21672,7 @@
       <c r="N371" s="11"/>
       <c r="O371" s="11"/>
     </row>
-    <row r="372" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="38">
         <v>2</v>
       </c>
@@ -21708,7 +21715,7 @@
       <c r="N372" s="11"/>
       <c r="O372" s="11"/>
     </row>
-    <row r="373" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="38">
         <v>2</v>
       </c>
@@ -21751,7 +21758,7 @@
       <c r="N373" s="11"/>
       <c r="O373" s="11"/>
     </row>
-    <row r="374" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="21">
         <v>2</v>
       </c>
@@ -21794,7 +21801,7 @@
       <c r="N374" s="11"/>
       <c r="O374" s="11"/>
     </row>
-    <row r="375" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="21">
         <v>2</v>
       </c>
@@ -21837,7 +21844,7 @@
       <c r="N375" s="11"/>
       <c r="O375" s="11"/>
     </row>
-    <row r="376" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="21">
         <v>2</v>
       </c>
@@ -21880,7 +21887,7 @@
       <c r="N376" s="11"/>
       <c r="O376" s="11"/>
     </row>
-    <row r="377" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="21">
         <v>2</v>
       </c>
@@ -21923,7 +21930,7 @@
       <c r="N377" s="11"/>
       <c r="O377" s="11"/>
     </row>
-    <row r="378" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="21">
         <v>2</v>
       </c>
@@ -21966,7 +21973,7 @@
       <c r="N378" s="11"/>
       <c r="O378" s="11"/>
     </row>
-    <row r="379" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="21">
         <v>2</v>
       </c>
@@ -22009,7 +22016,7 @@
       <c r="N379" s="11"/>
       <c r="O379" s="11"/>
     </row>
-    <row r="380" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="21">
         <v>2</v>
       </c>
@@ -22052,7 +22059,7 @@
       <c r="N380" s="11"/>
       <c r="O380" s="11"/>
     </row>
-    <row r="381" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="21">
         <v>2</v>
       </c>
@@ -22095,7 +22102,7 @@
       <c r="N381" s="11"/>
       <c r="O381" s="11"/>
     </row>
-    <row r="382" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="21">
         <v>2</v>
       </c>
@@ -22138,7 +22145,7 @@
       <c r="N382" s="11"/>
       <c r="O382" s="11"/>
     </row>
-    <row r="383" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="21">
         <v>2</v>
       </c>
@@ -22181,7 +22188,7 @@
       <c r="N383" s="11"/>
       <c r="O383" s="11"/>
     </row>
-    <row r="384" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="21">
         <v>2</v>
       </c>
@@ -22224,7 +22231,7 @@
       <c r="N384" s="11"/>
       <c r="O384" s="11"/>
     </row>
-    <row r="385" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="21">
         <v>2</v>
       </c>
@@ -22267,7 +22274,7 @@
       <c r="N385" s="11"/>
       <c r="O385" s="11"/>
     </row>
-    <row r="386" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="21">
         <v>2</v>
       </c>
@@ -22310,7 +22317,7 @@
       <c r="N386" s="11"/>
       <c r="O386" s="11"/>
     </row>
-    <row r="387" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="21">
         <v>2</v>
       </c>
@@ -22353,7 +22360,7 @@
       <c r="N387" s="11"/>
       <c r="O387" s="11"/>
     </row>
-    <row r="388" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="21">
         <v>2</v>
       </c>
@@ -22396,7 +22403,7 @@
       <c r="N388" s="11"/>
       <c r="O388" s="11"/>
     </row>
-    <row r="389" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="21">
         <v>2</v>
       </c>
@@ -22439,7 +22446,7 @@
       <c r="N389" s="11"/>
       <c r="O389" s="11"/>
     </row>
-    <row r="390" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="21">
         <v>2</v>
       </c>
@@ -22482,7 +22489,7 @@
       <c r="N390" s="11"/>
       <c r="O390" s="11"/>
     </row>
-    <row r="391" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="21">
         <v>2</v>
       </c>
@@ -22525,7 +22532,7 @@
       <c r="N391" s="11"/>
       <c r="O391" s="11"/>
     </row>
-    <row r="392" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="21">
         <v>2</v>
       </c>
@@ -22568,7 +22575,7 @@
       <c r="N392" s="11"/>
       <c r="O392" s="11"/>
     </row>
-    <row r="393" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="21">
         <v>2</v>
       </c>
@@ -22611,7 +22618,7 @@
       <c r="N393" s="11"/>
       <c r="O393" s="11"/>
     </row>
-    <row r="394" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="21">
         <v>2</v>
       </c>
@@ -22654,7 +22661,7 @@
       <c r="N394" s="11"/>
       <c r="O394" s="11"/>
     </row>
-    <row r="395" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="21">
         <v>2</v>
       </c>
@@ -22697,7 +22704,7 @@
       <c r="N395" s="11"/>
       <c r="O395" s="11"/>
     </row>
-    <row r="396" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="21">
         <v>2</v>
       </c>
@@ -22740,7 +22747,7 @@
       <c r="N396" s="11"/>
       <c r="O396" s="11"/>
     </row>
-    <row r="397" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="21">
         <v>2</v>
       </c>
@@ -22783,7 +22790,7 @@
       <c r="N397" s="11"/>
       <c r="O397" s="11"/>
     </row>
-    <row r="398" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="21">
         <v>2</v>
       </c>
@@ -22826,7 +22833,7 @@
       <c r="N398" s="11"/>
       <c r="O398" s="11"/>
     </row>
-    <row r="399" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="21">
         <v>2</v>
       </c>
@@ -22869,7 +22876,7 @@
       <c r="N399" s="11"/>
       <c r="O399" s="11"/>
     </row>
-    <row r="400" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="21">
         <v>2</v>
       </c>
@@ -22912,7 +22919,7 @@
       <c r="N400" s="11"/>
       <c r="O400" s="11"/>
     </row>
-    <row r="401" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="21">
         <v>2</v>
       </c>
@@ -22955,7 +22962,7 @@
       <c r="N401" s="11"/>
       <c r="O401" s="11"/>
     </row>
-    <row r="402" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="21">
         <v>2</v>
       </c>
@@ -22998,7 +23005,7 @@
       <c r="N402" s="11"/>
       <c r="O402" s="11"/>
     </row>
-    <row r="403" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="21">
         <v>2</v>
       </c>
@@ -23041,7 +23048,7 @@
       <c r="N403" s="11"/>
       <c r="O403" s="11"/>
     </row>
-    <row r="404" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="21">
         <v>2</v>
       </c>
@@ -23084,7 +23091,7 @@
       <c r="N404" s="11"/>
       <c r="O404" s="11"/>
     </row>
-    <row r="405" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="21">
         <v>2</v>
       </c>
@@ -23127,7 +23134,7 @@
       <c r="N405" s="11"/>
       <c r="O405" s="11"/>
     </row>
-    <row r="406" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="21">
         <v>2</v>
       </c>
@@ -23170,7 +23177,7 @@
       <c r="N406" s="11"/>
       <c r="O406" s="11"/>
     </row>
-    <row r="407" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="21">
         <v>2</v>
       </c>
@@ -23213,7 +23220,7 @@
       <c r="N407" s="11"/>
       <c r="O407" s="11"/>
     </row>
-    <row r="408" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="21">
         <v>2</v>
       </c>
@@ -23256,7 +23263,7 @@
       <c r="N408" s="11"/>
       <c r="O408" s="11"/>
     </row>
-    <row r="409" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="21">
         <v>2</v>
       </c>
@@ -23299,7 +23306,7 @@
       <c r="N409" s="11"/>
       <c r="O409" s="11"/>
     </row>
-    <row r="410" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="21">
         <v>2</v>
       </c>
@@ -23342,7 +23349,7 @@
       <c r="N410" s="11"/>
       <c r="O410" s="11"/>
     </row>
-    <row r="411" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="21">
         <v>2</v>
       </c>
@@ -23385,7 +23392,7 @@
       <c r="N411" s="11"/>
       <c r="O411" s="11"/>
     </row>
-    <row r="412" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="21">
         <v>2</v>
       </c>
@@ -23428,7 +23435,7 @@
       <c r="N412" s="11"/>
       <c r="O412" s="11"/>
     </row>
-    <row r="413" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="21">
         <v>2</v>
       </c>
@@ -23471,7 +23478,7 @@
       <c r="N413" s="11"/>
       <c r="O413" s="11"/>
     </row>
-    <row r="414" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="21">
         <v>2</v>
       </c>
@@ -23514,7 +23521,7 @@
       <c r="N414" s="11"/>
       <c r="O414" s="11"/>
     </row>
-    <row r="415" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="21">
         <v>2</v>
       </c>
@@ -23557,7 +23564,7 @@
       <c r="N415" s="11"/>
       <c r="O415" s="11"/>
     </row>
-    <row r="416" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="21">
         <v>2</v>
       </c>
@@ -23600,7 +23607,7 @@
       <c r="N416" s="11"/>
       <c r="O416" s="11"/>
     </row>
-    <row r="417" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="21">
         <v>4</v>
       </c>
@@ -23643,7 +23650,7 @@
       <c r="N417" s="11"/>
       <c r="O417" s="11"/>
     </row>
-    <row r="418" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="21">
         <v>4</v>
       </c>
@@ -23686,7 +23693,7 @@
       <c r="N418" s="11"/>
       <c r="O418" s="11"/>
     </row>
-    <row r="419" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="21">
         <v>4</v>
       </c>
@@ -23729,7 +23736,7 @@
       <c r="N419" s="11"/>
       <c r="O419" s="11"/>
     </row>
-    <row r="420" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="21">
         <v>4</v>
       </c>
@@ -23772,7 +23779,7 @@
       <c r="N420" s="11"/>
       <c r="O420" s="11"/>
     </row>
-    <row r="421" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="21">
         <v>4</v>
       </c>
@@ -23815,7 +23822,7 @@
       <c r="N421" s="11"/>
       <c r="O421" s="11"/>
     </row>
-    <row r="422" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="21">
         <v>4</v>
       </c>
@@ -23858,7 +23865,7 @@
       <c r="N422" s="11"/>
       <c r="O422" s="11"/>
     </row>
-    <row r="423" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="21">
         <v>4</v>
       </c>
@@ -23901,7 +23908,7 @@
       <c r="N423" s="11"/>
       <c r="O423" s="11"/>
     </row>
-    <row r="424" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="21">
         <v>4</v>
       </c>
@@ -23944,7 +23951,7 @@
       <c r="N424" s="11"/>
       <c r="O424" s="11"/>
     </row>
-    <row r="425" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="21">
         <v>4</v>
       </c>
@@ -23987,7 +23994,7 @@
       <c r="N425" s="11"/>
       <c r="O425" s="11"/>
     </row>
-    <row r="426" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="21">
         <v>4</v>
       </c>
@@ -24030,7 +24037,7 @@
       <c r="N426" s="11"/>
       <c r="O426" s="11"/>
     </row>
-    <row r="427" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="21">
         <v>4</v>
       </c>
@@ -24073,7 +24080,7 @@
       <c r="N427" s="11"/>
       <c r="O427" s="11"/>
     </row>
-    <row r="428" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="21">
         <v>4</v>
       </c>
@@ -24116,7 +24123,7 @@
       <c r="N428" s="11"/>
       <c r="O428" s="11"/>
     </row>
-    <row r="429" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="21">
         <v>4</v>
       </c>
@@ -24159,7 +24166,7 @@
       <c r="N429" s="11"/>
       <c r="O429" s="11"/>
     </row>
-    <row r="430" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="21">
         <v>4</v>
       </c>
@@ -24202,7 +24209,7 @@
       <c r="N430" s="11"/>
       <c r="O430" s="11"/>
     </row>
-    <row r="431" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="21">
         <v>4</v>
       </c>
@@ -24245,7 +24252,7 @@
       <c r="N431" s="11"/>
       <c r="O431" s="11"/>
     </row>
-    <row r="432" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="21">
         <v>2</v>
       </c>
@@ -24288,7 +24295,7 @@
       <c r="N432" s="11"/>
       <c r="O432" s="11"/>
     </row>
-    <row r="433" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="21">
         <v>4</v>
       </c>
@@ -24331,7 +24338,7 @@
       <c r="N433" s="11"/>
       <c r="O433" s="11"/>
     </row>
-    <row r="434" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="21">
         <v>4</v>
       </c>
@@ -24374,7 +24381,7 @@
       <c r="N434" s="11"/>
       <c r="O434" s="11"/>
     </row>
-    <row r="435" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="21">
         <v>4</v>
       </c>
@@ -24417,7 +24424,7 @@
       <c r="N435" s="11"/>
       <c r="O435" s="11"/>
     </row>
-    <row r="436" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="21">
         <v>4</v>
       </c>
@@ -24460,7 +24467,7 @@
       <c r="N436" s="11"/>
       <c r="O436" s="11"/>
     </row>
-    <row r="437" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="21">
         <v>4</v>
       </c>
@@ -24503,7 +24510,7 @@
       <c r="N437" s="11"/>
       <c r="O437" s="11"/>
     </row>
-    <row r="438" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="21">
         <v>4</v>
       </c>
@@ -24546,7 +24553,7 @@
       <c r="N438" s="11"/>
       <c r="O438" s="11"/>
     </row>
-    <row r="439" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="21">
         <v>4</v>
       </c>
@@ -24589,7 +24596,7 @@
       <c r="N439" s="11"/>
       <c r="O439" s="11"/>
     </row>
-    <row r="440" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="21">
         <v>4</v>
       </c>
@@ -24632,7 +24639,7 @@
       <c r="N440" s="11"/>
       <c r="O440" s="11"/>
     </row>
-    <row r="441" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="21">
         <v>4</v>
       </c>
@@ -24675,7 +24682,7 @@
       <c r="N441" s="11"/>
       <c r="O441" s="11"/>
     </row>
-    <row r="442" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="21">
         <v>4</v>
       </c>
@@ -24718,7 +24725,7 @@
       <c r="N442" s="11"/>
       <c r="O442" s="11"/>
     </row>
-    <row r="443" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="21">
         <v>4</v>
       </c>
@@ -24761,7 +24768,7 @@
       <c r="N443" s="11"/>
       <c r="O443" s="11"/>
     </row>
-    <row r="444" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="21">
         <v>4</v>
       </c>
@@ -24804,7 +24811,7 @@
       <c r="N444" s="11"/>
       <c r="O444" s="11"/>
     </row>
-    <row r="445" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="21">
         <v>4</v>
       </c>
@@ -24847,7 +24854,7 @@
       <c r="N445" s="11"/>
       <c r="O445" s="11"/>
     </row>
-    <row r="446" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="21">
         <v>4</v>
       </c>
@@ -24890,7 +24897,7 @@
       <c r="N446" s="11"/>
       <c r="O446" s="11"/>
     </row>
-    <row r="447" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="21">
         <v>4</v>
       </c>
@@ -24933,7 +24940,7 @@
       <c r="N447" s="11"/>
       <c r="O447" s="11"/>
     </row>
-    <row r="448" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="21">
         <v>4</v>
       </c>
@@ -24976,7 +24983,7 @@
       <c r="N448" s="11"/>
       <c r="O448" s="11"/>
     </row>
-    <row r="449" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="21">
         <v>4</v>
       </c>
@@ -25019,7 +25026,7 @@
       <c r="N449" s="11"/>
       <c r="O449" s="11"/>
     </row>
-    <row r="450" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="21">
         <v>4</v>
       </c>
@@ -25062,7 +25069,7 @@
       <c r="N450" s="11"/>
       <c r="O450" s="11"/>
     </row>
-    <row r="451" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="21">
         <v>4</v>
       </c>
@@ -25105,7 +25112,7 @@
       <c r="N451" s="11"/>
       <c r="O451" s="11"/>
     </row>
-    <row r="452" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="21">
         <v>4</v>
       </c>
@@ -25148,7 +25155,7 @@
       <c r="N452" s="11"/>
       <c r="O452" s="11"/>
     </row>
-    <row r="453" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="21">
         <v>4</v>
       </c>
@@ -25191,7 +25198,7 @@
       <c r="N453" s="11"/>
       <c r="O453" s="11"/>
     </row>
-    <row r="454" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="21">
         <v>4</v>
       </c>
@@ -25234,7 +25241,7 @@
       <c r="N454" s="11"/>
       <c r="O454" s="11"/>
     </row>
-    <row r="455" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="21">
         <v>4</v>
       </c>
@@ -25277,7 +25284,7 @@
       <c r="N455" s="11"/>
       <c r="O455" s="11"/>
     </row>
-    <row r="456" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="21">
         <v>4</v>
       </c>
@@ -25320,7 +25327,7 @@
       <c r="N456" s="11"/>
       <c r="O456" s="11"/>
     </row>
-    <row r="457" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="21">
         <v>4</v>
       </c>
@@ -25363,7 +25370,7 @@
       <c r="N457" s="11"/>
       <c r="O457" s="11"/>
     </row>
-    <row r="458" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="21">
         <v>4</v>
       </c>
@@ -25406,7 +25413,7 @@
       <c r="N458" s="11"/>
       <c r="O458" s="11"/>
     </row>
-    <row r="459" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="21">
         <v>4</v>
       </c>
@@ -25449,7 +25456,7 @@
       <c r="N459" s="11"/>
       <c r="O459" s="11"/>
     </row>
-    <row r="460" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="21">
         <v>4</v>
       </c>
@@ -25492,7 +25499,7 @@
       <c r="N460" s="11"/>
       <c r="O460" s="11"/>
     </row>
-    <row r="461" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="21">
         <v>4</v>
       </c>
@@ -25535,7 +25542,7 @@
       <c r="N461" s="11"/>
       <c r="O461" s="11"/>
     </row>
-    <row r="462" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="21">
         <v>4</v>
       </c>
@@ -25578,7 +25585,7 @@
       <c r="N462" s="11"/>
       <c r="O462" s="11"/>
     </row>
-    <row r="463" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="27">
         <v>2</v>
       </c>
@@ -25621,7 +25628,7 @@
       <c r="N463" s="11"/>
       <c r="O463" s="11"/>
     </row>
-    <row r="464" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="29">
         <v>2</v>
       </c>
@@ -25664,7 +25671,7 @@
       <c r="N464" s="11"/>
       <c r="O464" s="11"/>
     </row>
-    <row r="465" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="39">
         <v>2</v>
       </c>
@@ -25707,7 +25714,7 @@
       <c r="N465" s="11"/>
       <c r="O465" s="11"/>
     </row>
-    <row r="466" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="29">
         <v>2</v>
       </c>
@@ -25750,7 +25757,7 @@
       <c r="N466" s="11"/>
       <c r="O466" s="11"/>
     </row>
-    <row r="467" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="29">
         <v>2</v>
       </c>
@@ -25793,7 +25800,7 @@
       <c r="N467" s="11"/>
       <c r="O467" s="11"/>
     </row>
-    <row r="468" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="29">
         <v>2</v>
       </c>
@@ -25836,7 +25843,7 @@
       <c r="N468" s="11"/>
       <c r="O468" s="11"/>
     </row>
-    <row r="469" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="39">
         <v>2</v>
       </c>
@@ -25879,7 +25886,7 @@
       <c r="N469" s="11"/>
       <c r="O469" s="11"/>
     </row>
-    <row r="470" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="29">
         <v>2</v>
       </c>
@@ -25922,7 +25929,7 @@
       <c r="N470" s="11"/>
       <c r="O470" s="11"/>
     </row>
-    <row r="471" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="29">
         <v>2</v>
       </c>
@@ -25965,7 +25972,7 @@
       <c r="N471" s="11"/>
       <c r="O471" s="11"/>
     </row>
-    <row r="472" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="29">
         <v>2</v>
       </c>
@@ -26008,7 +26015,7 @@
       <c r="N472" s="11"/>
       <c r="O472" s="11"/>
     </row>
-    <row r="473" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="29">
         <v>2</v>
       </c>
@@ -26051,7 +26058,7 @@
       <c r="N473" s="11"/>
       <c r="O473" s="11"/>
     </row>
-    <row r="474" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="29" t="s">
         <v>454</v>
       </c>
@@ -26094,7 +26101,7 @@
       <c r="N474" s="11"/>
       <c r="O474" s="11"/>
     </row>
-    <row r="475" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="29">
         <v>2</v>
       </c>
@@ -26137,7 +26144,7 @@
       <c r="N475" s="11"/>
       <c r="O475" s="11"/>
     </row>
-    <row r="476" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="29">
         <v>2</v>
       </c>
@@ -26180,7 +26187,7 @@
       <c r="N476" s="11"/>
       <c r="O476" s="11"/>
     </row>
-    <row r="477" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="29">
         <v>2</v>
       </c>
@@ -26223,7 +26230,7 @@
       <c r="N477" s="11"/>
       <c r="O477" s="11"/>
     </row>
-    <row r="478" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
         <v>2</v>
       </c>
@@ -26266,7 +26273,7 @@
       <c r="N478" s="11"/>
       <c r="O478" s="11"/>
     </row>
-    <row r="479" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="29" t="s">
         <v>454</v>
       </c>
@@ -26309,7 +26316,7 @@
       <c r="N479" s="11"/>
       <c r="O479" s="11"/>
     </row>
-    <row r="480" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="29">
         <v>2</v>
       </c>
@@ -26352,7 +26359,7 @@
       <c r="N480" s="11"/>
       <c r="O480" s="11"/>
     </row>
-    <row r="481" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="29">
         <v>2</v>
       </c>
@@ -26395,7 +26402,7 @@
       <c r="N481" s="11"/>
       <c r="O481" s="11"/>
     </row>
-    <row r="482" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="39">
         <v>2</v>
       </c>
@@ -26438,7 +26445,7 @@
       <c r="N482" s="11"/>
       <c r="O482" s="11"/>
     </row>
-    <row r="483" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="29" t="s">
         <v>454</v>
       </c>
@@ -26481,7 +26488,7 @@
       <c r="N483" s="11"/>
       <c r="O483" s="11"/>
     </row>
-    <row r="484" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="29">
         <v>2</v>
       </c>
@@ -26524,7 +26531,7 @@
       <c r="N484" s="11"/>
       <c r="O484" s="11"/>
     </row>
-    <row r="485" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="29">
         <v>2</v>
       </c>
@@ -26567,7 +26574,7 @@
       <c r="N485" s="11"/>
       <c r="O485" s="11"/>
     </row>
-    <row r="486" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="39">
         <v>2</v>
       </c>
@@ -26610,7 +26617,7 @@
       <c r="N486" s="11"/>
       <c r="O486" s="11"/>
     </row>
-    <row r="487" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="29">
         <v>2</v>
       </c>
@@ -26653,7 +26660,7 @@
       <c r="N487" s="11"/>
       <c r="O487" s="11"/>
     </row>
-    <row r="488" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="29">
         <v>2</v>
       </c>
@@ -26696,7 +26703,7 @@
       <c r="N488" s="11"/>
       <c r="O488" s="11"/>
     </row>
-    <row r="489" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="29" t="s">
         <v>454</v>
       </c>
@@ -26739,7 +26746,7 @@
       <c r="N489" s="11"/>
       <c r="O489" s="11"/>
     </row>
-    <row r="490" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="29">
         <v>2</v>
       </c>
@@ -26782,7 +26789,7 @@
       <c r="N490" s="11"/>
       <c r="O490" s="11"/>
     </row>
-    <row r="491" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="29">
         <v>2</v>
       </c>
@@ -26825,7 +26832,7 @@
       <c r="N491" s="11"/>
       <c r="O491" s="11"/>
     </row>
-    <row r="492" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="29" t="s">
         <v>454</v>
       </c>
@@ -26868,7 +26875,7 @@
       <c r="N492" s="11"/>
       <c r="O492" s="11"/>
     </row>
-    <row r="493" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="29">
         <v>2</v>
       </c>
@@ -26911,7 +26918,7 @@
       <c r="N493" s="11"/>
       <c r="O493" s="11"/>
     </row>
-    <row r="494" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="29">
         <v>2</v>
       </c>
@@ -26954,7 +26961,7 @@
       <c r="N494" s="11"/>
       <c r="O494" s="11"/>
     </row>
-    <row r="495" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="29" t="s">
         <v>454</v>
       </c>
@@ -26997,7 +27004,7 @@
       <c r="N495" s="11"/>
       <c r="O495" s="11"/>
     </row>
-    <row r="496" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="29">
         <v>2</v>
       </c>
@@ -27040,7 +27047,7 @@
       <c r="N496" s="11"/>
       <c r="O496" s="11"/>
     </row>
-    <row r="497" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="29" t="s">
         <v>454</v>
       </c>
@@ -27083,7 +27090,7 @@
       <c r="N497" s="11"/>
       <c r="O497" s="11"/>
     </row>
-    <row r="498" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="29">
         <v>2</v>
       </c>
@@ -27126,7 +27133,7 @@
       <c r="N498" s="11"/>
       <c r="O498" s="11"/>
     </row>
-    <row r="499" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="29" t="s">
         <v>454</v>
       </c>
@@ -27169,7 +27176,7 @@
       <c r="N499" s="11"/>
       <c r="O499" s="11"/>
     </row>
-    <row r="500" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="29">
         <v>2</v>
       </c>
@@ -27212,7 +27219,7 @@
       <c r="N500" s="11"/>
       <c r="O500" s="11"/>
     </row>
-    <row r="501" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="29">
         <v>4</v>
       </c>
@@ -27255,7 +27262,7 @@
       <c r="N501" s="11"/>
       <c r="O501" s="11"/>
     </row>
-    <row r="502" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="29">
         <v>4</v>
       </c>
@@ -27298,7 +27305,7 @@
       <c r="N502" s="11"/>
       <c r="O502" s="11"/>
     </row>
-    <row r="503" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="29" t="s">
         <v>454</v>
       </c>
@@ -27341,7 +27348,7 @@
       <c r="N503" s="11"/>
       <c r="O503" s="11"/>
     </row>
-    <row r="504" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="39">
         <v>2</v>
       </c>
@@ -27384,7 +27391,7 @@
       <c r="N504" s="11"/>
       <c r="O504" s="11"/>
     </row>
-    <row r="505" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="29" t="s">
         <v>454</v>
       </c>
@@ -27427,7 +27434,7 @@
       <c r="N505" s="11"/>
       <c r="O505" s="11"/>
     </row>
-    <row r="506" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="29" t="s">
         <v>454</v>
       </c>
@@ -27470,7 +27477,7 @@
       <c r="N506" s="11"/>
       <c r="O506" s="11"/>
     </row>
-    <row r="507" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="29" t="s">
         <v>454</v>
       </c>
@@ -27513,7 +27520,7 @@
       <c r="N507" s="11"/>
       <c r="O507" s="11"/>
     </row>
-    <row r="508" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="39">
         <v>2</v>
       </c>
@@ -27542,7 +27549,7 @@
       <c r="N508" s="11"/>
       <c r="O508" s="11"/>
     </row>
-    <row r="509" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="39">
         <v>2</v>
       </c>
@@ -27571,7 +27578,7 @@
       <c r="N509" s="11"/>
       <c r="O509" s="11"/>
     </row>
-    <row r="510" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="39">
         <v>2</v>
       </c>
@@ -27600,7 +27607,7 @@
       <c r="N510" s="11"/>
       <c r="O510" s="11"/>
     </row>
-    <row r="511" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="39">
         <v>2</v>
       </c>
@@ -27629,7 +27636,7 @@
       <c r="N511" s="11"/>
       <c r="O511" s="11"/>
     </row>
-    <row r="512" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="29" t="s">
         <v>454</v>
       </c>
@@ -27672,7 +27679,7 @@
       <c r="N512" s="11"/>
       <c r="O512" s="11"/>
     </row>
-    <row r="513" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="29">
         <v>8</v>
       </c>
@@ -27715,7 +27722,7 @@
       <c r="N513" s="11"/>
       <c r="O513" s="11"/>
     </row>
-    <row r="514" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="29">
         <v>8</v>
       </c>
@@ -27758,7 +27765,7 @@
       <c r="N514" s="11"/>
       <c r="O514" s="11"/>
     </row>
-    <row r="515" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="29">
         <v>8</v>
       </c>
@@ -27801,7 +27808,7 @@
       <c r="N515" s="11"/>
       <c r="O515" s="11"/>
     </row>
-    <row r="516" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="29">
         <v>8</v>
       </c>
@@ -27844,7 +27851,7 @@
       <c r="N516" s="11"/>
       <c r="O516" s="11"/>
     </row>
-    <row r="517" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="29">
         <v>8</v>
       </c>
@@ -27887,7 +27894,7 @@
       <c r="N517" s="11"/>
       <c r="O517" s="11"/>
     </row>
-    <row r="518" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="29">
         <v>8</v>
       </c>
@@ -27930,7 +27937,7 @@
       <c r="N518" s="11"/>
       <c r="O518" s="11"/>
     </row>
-    <row r="519" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="29">
         <v>8</v>
       </c>
@@ -27973,7 +27980,7 @@
       <c r="N519" s="11"/>
       <c r="O519" s="11"/>
     </row>
-    <row r="520" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="29">
         <v>8</v>
       </c>
@@ -28016,7 +28023,7 @@
       <c r="N520" s="11"/>
       <c r="O520" s="11"/>
     </row>
-    <row r="521" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="29">
         <v>8</v>
       </c>
@@ -28059,7 +28066,7 @@
       <c r="N521" s="11"/>
       <c r="O521" s="11"/>
     </row>
-    <row r="522" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="29">
         <v>8</v>
       </c>
@@ -28102,7 +28109,7 @@
       <c r="N522" s="11"/>
       <c r="O522" s="11"/>
     </row>
-    <row r="523" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="29">
         <v>8</v>
       </c>
@@ -28145,7 +28152,7 @@
       <c r="N523" s="11"/>
       <c r="O523" s="11"/>
     </row>
-    <row r="524" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="29">
         <v>8</v>
       </c>
@@ -28188,7 +28195,7 @@
       <c r="N524" s="11"/>
       <c r="O524" s="11"/>
     </row>
-    <row r="525" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="29">
         <v>8</v>
       </c>
@@ -28231,7 +28238,7 @@
       <c r="N525" s="11"/>
       <c r="O525" s="11"/>
     </row>
-    <row r="526" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="29">
         <v>8</v>
       </c>
@@ -28274,7 +28281,7 @@
       <c r="N526" s="11"/>
       <c r="O526" s="11"/>
     </row>
-    <row r="527" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="29">
         <v>8</v>
       </c>
@@ -28317,7 +28324,7 @@
       <c r="N527" s="11"/>
       <c r="O527" s="11"/>
     </row>
-    <row r="528" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="29">
         <v>8</v>
       </c>
@@ -28360,7 +28367,7 @@
       <c r="N528" s="11"/>
       <c r="O528" s="11"/>
     </row>
-    <row r="529" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="29">
         <v>8</v>
       </c>
@@ -28403,7 +28410,7 @@
       <c r="N529" s="11"/>
       <c r="O529" s="11"/>
     </row>
-    <row r="530" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="29">
         <v>8</v>
       </c>
@@ -28446,7 +28453,7 @@
       <c r="N530" s="11"/>
       <c r="O530" s="11"/>
     </row>
-    <row r="531" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="27">
         <v>1</v>
       </c>
@@ -28489,7 +28496,7 @@
       <c r="N531" s="11"/>
       <c r="O531" s="11"/>
     </row>
-    <row r="532" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="29">
         <v>8</v>
       </c>
@@ -28532,7 +28539,7 @@
       <c r="N532" s="11"/>
       <c r="O532" s="11"/>
     </row>
-    <row r="533" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="29">
         <v>8</v>
       </c>
@@ -28575,7 +28582,7 @@
       <c r="N533" s="11"/>
       <c r="O533" s="11"/>
     </row>
-    <row r="534" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="29">
         <v>8</v>
       </c>
@@ -28618,7 +28625,7 @@
       <c r="N534" s="11"/>
       <c r="O534" s="11"/>
     </row>
-    <row r="535" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="29">
         <v>8</v>
       </c>
@@ -28661,7 +28668,7 @@
       <c r="N535" s="11"/>
       <c r="O535" s="11"/>
     </row>
-    <row r="536" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="29">
         <v>8</v>
       </c>
@@ -28704,7 +28711,7 @@
       <c r="N536" s="11"/>
       <c r="O536" s="11"/>
     </row>
-    <row r="537" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="29">
         <v>8</v>
       </c>
@@ -28747,7 +28754,7 @@
       <c r="N537" s="11"/>
       <c r="O537" s="11"/>
     </row>
-    <row r="538" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="29">
         <v>8</v>
       </c>
@@ -28790,7 +28797,7 @@
       <c r="N538" s="11"/>
       <c r="O538" s="11"/>
     </row>
-    <row r="539" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="29">
         <v>8</v>
       </c>
@@ -28833,7 +28840,7 @@
       <c r="N539" s="11"/>
       <c r="O539" s="11"/>
     </row>
-    <row r="540" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="29">
         <v>8</v>
       </c>
@@ -28876,7 +28883,7 @@
       <c r="N540" s="11"/>
       <c r="O540" s="11"/>
     </row>
-    <row r="541" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="27">
         <v>1</v>
       </c>
@@ -28919,7 +28926,7 @@
       <c r="N541" s="11"/>
       <c r="O541" s="11"/>
     </row>
-    <row r="542" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="29">
         <v>8</v>
       </c>
@@ -28962,7 +28969,7 @@
       <c r="N542" s="11"/>
       <c r="O542" s="11"/>
     </row>
-    <row r="543" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="29">
         <v>8</v>
       </c>
@@ -29005,7 +29012,7 @@
       <c r="N543" s="11"/>
       <c r="O543" s="11"/>
     </row>
-    <row r="544" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="29">
         <v>8</v>
       </c>
@@ -29048,7 +29055,7 @@
       <c r="N544" s="11"/>
       <c r="O544" s="11"/>
     </row>
-    <row r="545" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="29">
         <v>8</v>
       </c>
@@ -29091,7 +29098,7 @@
       <c r="N545" s="11"/>
       <c r="O545" s="11"/>
     </row>
-    <row r="546" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="29">
         <v>8</v>
       </c>
@@ -29134,7 +29141,7 @@
       <c r="N546" s="11"/>
       <c r="O546" s="11"/>
     </row>
-    <row r="547" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="29">
         <v>8</v>
       </c>
@@ -29177,7 +29184,7 @@
       <c r="N547" s="11"/>
       <c r="O547" s="11"/>
     </row>
-    <row r="548" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="29">
         <v>8</v>
       </c>
@@ -29220,7 +29227,7 @@
       <c r="N548" s="11"/>
       <c r="O548" s="11"/>
     </row>
-    <row r="549" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="29">
         <v>8</v>
       </c>
@@ -29263,7 +29270,7 @@
       <c r="N549" s="11"/>
       <c r="O549" s="11"/>
     </row>
-    <row r="550" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="29">
         <v>8</v>
       </c>
@@ -29306,7 +29313,7 @@
       <c r="N550" s="11"/>
       <c r="O550" s="11"/>
     </row>
-    <row r="551" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="29">
         <v>8</v>
       </c>
@@ -29347,7 +29354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="29">
         <v>8</v>
       </c>
@@ -29388,7 +29395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="29">
         <v>8</v>
       </c>
@@ -29429,7 +29436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="29">
         <v>3</v>
       </c>
@@ -29470,7 +29477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="29">
         <v>3</v>
       </c>
@@ -29511,7 +29518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="27">
         <v>8</v>
       </c>
@@ -29552,7 +29559,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="27">
         <v>8</v>
       </c>
@@ -29593,7 +29600,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="27">
         <v>8</v>
       </c>
@@ -29634,7 +29641,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="27">
         <v>8</v>
       </c>
@@ -29675,7 +29682,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="27">
         <v>8</v>
       </c>
@@ -29716,7 +29723,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="27">
         <v>8</v>
       </c>
@@ -29757,7 +29764,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="27">
         <v>8</v>
       </c>
@@ -29798,7 +29805,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="27">
         <v>8</v>
       </c>
@@ -29839,7 +29846,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="27">
         <v>8</v>
       </c>
@@ -29880,7 +29887,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="27">
         <v>8</v>
       </c>
@@ -29921,7 +29928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="27">
         <v>8</v>
       </c>
@@ -29962,7 +29969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="27">
         <v>8</v>
       </c>
@@ -30003,7 +30010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="27">
         <v>8</v>
       </c>
@@ -30044,7 +30051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="27">
         <v>8</v>
       </c>
@@ -30085,7 +30092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="27">
         <v>8</v>
       </c>
@@ -30126,7 +30133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="27">
         <v>8</v>
       </c>
@@ -30167,7 +30174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="27">
         <v>8</v>
       </c>
@@ -30208,7 +30215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="27">
         <v>8</v>
       </c>
@@ -30249,7 +30256,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="27">
         <v>8</v>
       </c>
@@ -30290,7 +30297,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="27">
         <v>8</v>
       </c>
@@ -30331,7 +30338,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="27">
         <v>8</v>
       </c>
@@ -30372,7 +30379,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="27">
         <v>8</v>
       </c>
@@ -30413,7 +30420,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="27">
         <v>8</v>
       </c>
@@ -30454,7 +30461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="27">
         <v>8</v>
       </c>
@@ -30495,7 +30502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="27">
         <v>8</v>
       </c>
@@ -30536,7 +30543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="27">
         <v>8</v>
       </c>
@@ -30577,7 +30584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="27">
         <v>8</v>
       </c>
@@ -30618,7 +30625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="27">
         <v>8</v>
       </c>
@@ -30659,7 +30666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="27">
         <v>8</v>
       </c>
@@ -30700,7 +30707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="27">
         <v>8</v>
       </c>
@@ -31011,7 +31018,7 @@
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31026,17 +31033,17 @@
       <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="117.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="9.109375" style="1"/>
     <col min="26" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="46" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>65</v>
       </c>
@@ -31045,7 +31052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>453</v>
       </c>
@@ -31053,7 +31060,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -31061,7 +31068,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -31069,7 +31076,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -31077,7 +31084,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -31085,7 +31092,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -31093,7 +31100,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -31101,7 +31108,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -31109,7 +31116,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -31117,7 +31124,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>454</v>
       </c>
@@ -31125,8 +31132,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -31134,7 +31141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>457</v>
       </c>
@@ -31142,8 +31149,8 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -31151,7 +31158,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>507</v>
       </c>
@@ -31159,7 +31166,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>466</v>
       </c>
@@ -31167,7 +31174,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
@@ -31175,7 +31182,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1020</v>
       </c>
@@ -31183,10 +31190,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
@@ -31194,7 +31201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -31202,7 +31209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
@@ -31210,10 +31217,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1041</v>
       </c>
@@ -31221,7 +31228,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -31229,7 +31236,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -31237,10 +31244,10 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
@@ -31248,7 +31255,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1022</v>
       </c>
@@ -31256,7 +31263,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1023</v>
       </c>
@@ -31264,7 +31271,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1024</v>
       </c>
@@ -31272,7 +31279,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1025</v>
       </c>
@@ -31280,7 +31287,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1026</v>
       </c>
@@ -31288,7 +31295,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1028</v>
       </c>
@@ -31296,7 +31303,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1027</v>
       </c>
@@ -31304,20 +31311,20 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
   </sheetData>

--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE51E6-C4AB-4411-A861-00B0C859F1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B287F-EAEA-43DC-AE0A-CBDBF4EB1E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7257" uniqueCount="1234">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5313,8 +5313,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O171" sqref="O171"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N171" sqref="N171:O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13063,8 +13063,10 @@
       <c r="M171" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N171" s="11"/>
-      <c r="O171" s="11" t="s">
+      <c r="N171" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O171" s="22" t="s">
         <v>1079</v>
       </c>
     </row>

--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B287F-EAEA-43DC-AE0A-CBDBF4EB1E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD808A-6FE6-421D-A646-5558835A16D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7257" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7259" uniqueCount="1234">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -1729,9 +1729,6 @@
   </si>
   <si>
     <t>LVBB5012</t>
-  </si>
-  <si>
-    <t>De regeling bij de was- en wordt-verie mag niet ingetrokken zijn</t>
   </si>
   <si>
     <t>LVBB7006</t>
@@ -3789,6 +3786,9 @@
   </si>
   <si>
     <t>opdracht_12</t>
+  </si>
+  <si>
+    <t>De regeling bij de was- en wordt-versie mag niet ingetrokken zijn</t>
   </si>
 </sst>
 </file>
@@ -5313,8 +5313,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N171" sqref="N171:O171"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N173" sqref="N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5347,34 +5347,34 @@
         <v>66</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>1022</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>1026</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>1027</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>553</v>
@@ -5425,10 +5425,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>507</v>
@@ -5468,10 +5468,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>507</v>
@@ -5511,10 +5511,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>507</v>
@@ -5554,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>116</v>
@@ -5597,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>118</v>
@@ -5640,10 +5640,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>507</v>
@@ -5683,10 +5683,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>507</v>
@@ -5726,10 +5726,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>507</v>
@@ -5769,10 +5769,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>507</v>
@@ -5812,10 +5812,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>507</v>
@@ -5855,10 +5855,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>507</v>
@@ -5898,10 +5898,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>507</v>
@@ -5941,10 +5941,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>507</v>
@@ -5984,10 +5984,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>507</v>
@@ -6027,10 +6027,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>507</v>
@@ -6070,10 +6070,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>507</v>
@@ -6113,10 +6113,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>507</v>
@@ -6156,13 +6156,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>13</v>
@@ -6192,7 +6192,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -6201,13 +6201,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>13</v>
@@ -6237,7 +6237,7 @@
         <v>25</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O21" s="11"/>
     </row>
@@ -6246,13 +6246,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>13</v>
@@ -6282,7 +6282,7 @@
         <v>25</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O22" s="11"/>
     </row>
@@ -6291,13 +6291,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>13</v>
@@ -6327,7 +6327,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O23" s="11"/>
     </row>
@@ -6336,13 +6336,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>13</v>
@@ -6372,7 +6372,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O24" s="11"/>
     </row>
@@ -6381,13 +6381,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>13</v>
@@ -6417,7 +6417,7 @@
         <v>25</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O25" s="11"/>
     </row>
@@ -6426,13 +6426,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>13</v>
@@ -6462,7 +6462,7 @@
         <v>25</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O26" s="11"/>
     </row>
@@ -6471,13 +6471,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>13</v>
@@ -6507,7 +6507,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O27" s="11"/>
     </row>
@@ -6516,13 +6516,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>13</v>
@@ -6552,7 +6552,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O28" s="11"/>
     </row>
@@ -6561,13 +6561,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>13</v>
@@ -6597,7 +6597,7 @@
         <v>25</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O29" s="11"/>
     </row>
@@ -6606,13 +6606,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>13</v>
@@ -6642,7 +6642,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O30" s="11"/>
     </row>
@@ -6651,13 +6651,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>13</v>
@@ -6687,7 +6687,7 @@
         <v>25</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O31" s="11"/>
     </row>
@@ -6696,13 +6696,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>13</v>
@@ -6732,7 +6732,7 @@
         <v>25</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O32" s="11"/>
     </row>
@@ -6741,13 +6741,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>13</v>
@@ -6777,7 +6777,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O33" s="11"/>
     </row>
@@ -6786,13 +6786,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>13</v>
@@ -6824,7 +6824,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6832,13 +6832,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>13</v>
@@ -6870,7 +6870,7 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="16" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6914,10 +6914,10 @@
         <v>25</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6961,10 +6961,10 @@
         <v>25</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7008,10 +7008,10 @@
         <v>25</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7055,10 +7055,10 @@
         <v>25</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7102,10 +7102,10 @@
         <v>25</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7149,10 +7149,10 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7196,10 +7196,10 @@
         <v>25</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7243,10 +7243,10 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7290,10 +7290,10 @@
         <v>25</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7337,10 +7337,10 @@
         <v>25</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7384,10 +7384,10 @@
         <v>25</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7431,10 +7431,10 @@
         <v>25</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7478,10 +7478,10 @@
         <v>25</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7525,10 +7525,10 @@
         <v>25</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7572,10 +7572,10 @@
         <v>25</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7619,10 +7619,10 @@
         <v>25</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7666,10 +7666,10 @@
         <v>25</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7713,10 +7713,10 @@
         <v>25</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7760,10 +7760,10 @@
         <v>25</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7774,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>507</v>
@@ -7807,10 +7807,10 @@
         <v>25</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7854,10 +7854,10 @@
         <v>25</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7901,10 +7901,10 @@
         <v>25</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7912,11 +7912,11 @@
         <v>1</v>
       </c>
       <c r="B58" s="22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>1080</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>1081</v>
-      </c>
       <c r="D58" s="22" t="s">
         <v>507</v>
       </c>
@@ -7948,10 +7948,10 @@
         <v>25</v>
       </c>
       <c r="N58" s="22" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7959,11 +7959,11 @@
         <v>1</v>
       </c>
       <c r="B59" s="22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>1082</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>1083</v>
-      </c>
       <c r="D59" s="22" t="s">
         <v>507</v>
       </c>
@@ -7995,10 +7995,10 @@
         <v>25</v>
       </c>
       <c r="N59" s="22" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8049,10 +8049,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>159</v>
@@ -8092,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>159</v>
@@ -8171,10 +8171,10 @@
         <v>25</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8225,11 +8225,11 @@
         <v>2</v>
       </c>
       <c r="B65" s="22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>1084</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>1085</v>
-      </c>
       <c r="D65" s="22" t="s">
         <v>507</v>
       </c>
@@ -8261,10 +8261,10 @@
         <v>25</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8272,11 +8272,11 @@
         <v>2</v>
       </c>
       <c r="B66" s="22" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>1086</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>1087</v>
-      </c>
       <c r="D66" s="22" t="s">
         <v>507</v>
       </c>
@@ -8308,10 +8308,10 @@
         <v>25</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8322,7 +8322,7 @@
         <v>155</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>507</v>
@@ -8355,10 +8355,10 @@
         <v>25</v>
       </c>
       <c r="N67" s="22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O67" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8402,10 +8402,10 @@
         <v>25</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O68" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8499,11 +8499,11 @@
         <v>2</v>
       </c>
       <c r="B71" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>731</v>
-      </c>
       <c r="D71" s="22" t="s">
         <v>507</v>
       </c>
@@ -8535,10 +8535,10 @@
         <v>25</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8546,11 +8546,11 @@
         <v>2</v>
       </c>
       <c r="B72" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>733</v>
-      </c>
       <c r="D72" s="22" t="s">
         <v>507</v>
       </c>
@@ -8582,10 +8582,10 @@
         <v>25</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O72" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8593,10 +8593,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>734</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>735</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>507</v>
@@ -8636,10 +8636,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>1088</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>1089</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>507</v>
@@ -8679,7 +8679,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>527</v>
@@ -8715,10 +8715,10 @@
         <v>25</v>
       </c>
       <c r="N75" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9070,10 +9070,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>159</v>
@@ -9106,10 +9106,10 @@
         <v>25</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9196,10 +9196,10 @@
         <v>25</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9250,11 +9250,11 @@
         <v>2</v>
       </c>
       <c r="B88" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C88" s="27" t="s">
         <v>1091</v>
       </c>
-      <c r="C88" s="27" t="s">
-        <v>1092</v>
-      </c>
       <c r="D88" s="22" t="s">
         <v>507</v>
       </c>
@@ -9286,10 +9286,10 @@
         <v>25</v>
       </c>
       <c r="N88" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9297,11 +9297,11 @@
         <v>2</v>
       </c>
       <c r="B89" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>1093</v>
       </c>
-      <c r="C89" s="27" t="s">
-        <v>1094</v>
-      </c>
       <c r="D89" s="22" t="s">
         <v>507</v>
       </c>
@@ -9333,10 +9333,10 @@
         <v>25</v>
       </c>
       <c r="N89" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O89" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9344,11 +9344,11 @@
         <v>2</v>
       </c>
       <c r="B90" s="27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C90" s="27" t="s">
         <v>1095</v>
       </c>
-      <c r="C90" s="27" t="s">
-        <v>1096</v>
-      </c>
       <c r="D90" s="22" t="s">
         <v>507</v>
       </c>
@@ -9380,10 +9380,10 @@
         <v>25</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9391,11 +9391,11 @@
         <v>2</v>
       </c>
       <c r="B91" s="27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C91" s="27" t="s">
         <v>1097</v>
       </c>
-      <c r="C91" s="27" t="s">
-        <v>1098</v>
-      </c>
       <c r="D91" s="22" t="s">
         <v>507</v>
       </c>
@@ -9427,10 +9427,10 @@
         <v>25</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O91" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9438,11 +9438,11 @@
         <v>2</v>
       </c>
       <c r="B92" s="27" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C92" s="27" t="s">
         <v>1099</v>
       </c>
-      <c r="C92" s="27" t="s">
-        <v>1100</v>
-      </c>
       <c r="D92" s="22" t="s">
         <v>507</v>
       </c>
@@ -9474,10 +9474,10 @@
         <v>25</v>
       </c>
       <c r="N92" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O92" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9485,11 +9485,11 @@
         <v>2</v>
       </c>
       <c r="B93" s="27" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C93" s="27" t="s">
         <v>1101</v>
       </c>
-      <c r="C93" s="27" t="s">
-        <v>1102</v>
-      </c>
       <c r="D93" s="22" t="s">
         <v>507</v>
       </c>
@@ -9521,10 +9521,10 @@
         <v>25</v>
       </c>
       <c r="N93" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O93" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9532,11 +9532,11 @@
         <v>2</v>
       </c>
       <c r="B94" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C94" s="27" t="s">
         <v>1103</v>
       </c>
-      <c r="C94" s="27" t="s">
-        <v>1104</v>
-      </c>
       <c r="D94" s="22" t="s">
         <v>507</v>
       </c>
@@ -9568,10 +9568,10 @@
         <v>25</v>
       </c>
       <c r="N94" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O94" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9579,7 +9579,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>112</v>
@@ -9615,10 +9615,10 @@
         <v>25</v>
       </c>
       <c r="N95" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O95" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9626,11 +9626,11 @@
         <v>2</v>
       </c>
       <c r="B96" s="27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C96" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="C96" s="27" t="s">
-        <v>1107</v>
-      </c>
       <c r="D96" s="22" t="s">
         <v>507</v>
       </c>
@@ -9662,10 +9662,10 @@
         <v>25</v>
       </c>
       <c r="N96" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C97" s="27" t="s">
         <v>113</v>
@@ -9709,10 +9709,10 @@
         <v>25</v>
       </c>
       <c r="N97" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O97" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9720,11 +9720,11 @@
         <v>2</v>
       </c>
       <c r="B98" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C98" s="27" t="s">
         <v>1109</v>
       </c>
-      <c r="C98" s="27" t="s">
-        <v>1110</v>
-      </c>
       <c r="D98" s="22" t="s">
         <v>507</v>
       </c>
@@ -9756,10 +9756,10 @@
         <v>25</v>
       </c>
       <c r="N98" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O98" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9767,11 +9767,11 @@
         <v>2</v>
       </c>
       <c r="B99" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C99" s="27" t="s">
         <v>1111</v>
       </c>
-      <c r="C99" s="27" t="s">
-        <v>1112</v>
-      </c>
       <c r="D99" s="22" t="s">
         <v>507</v>
       </c>
@@ -9803,10 +9803,10 @@
         <v>25</v>
       </c>
       <c r="N99" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O99" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9814,11 +9814,11 @@
         <v>2</v>
       </c>
       <c r="B100" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>738</v>
-      </c>
       <c r="D100" s="22" t="s">
         <v>507</v>
       </c>
@@ -9850,10 +9850,10 @@
         <v>25</v>
       </c>
       <c r="N100" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O100" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9861,11 +9861,11 @@
         <v>2</v>
       </c>
       <c r="B101" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>740</v>
-      </c>
       <c r="D101" s="22" t="s">
         <v>507</v>
       </c>
@@ -9897,10 +9897,10 @@
         <v>25</v>
       </c>
       <c r="N101" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O101" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9908,11 +9908,11 @@
         <v>2</v>
       </c>
       <c r="B102" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>742</v>
-      </c>
       <c r="D102" s="22" t="s">
         <v>507</v>
       </c>
@@ -9944,10 +9944,10 @@
         <v>25</v>
       </c>
       <c r="N102" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O102" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9991,10 +9991,10 @@
         <v>25</v>
       </c>
       <c r="N103" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O103" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10217,10 +10217,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>1113</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>1114</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>507</v>
@@ -10339,10 +10339,10 @@
         <v>25</v>
       </c>
       <c r="N111" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O111" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10429,10 +10429,10 @@
         <v>25</v>
       </c>
       <c r="N113" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10476,10 +10476,10 @@
         <v>25</v>
       </c>
       <c r="N114" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O114" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10487,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>543</v>
@@ -10523,10 +10523,10 @@
         <v>25</v>
       </c>
       <c r="N115" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O115" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10534,11 +10534,11 @@
         <v>2</v>
       </c>
       <c r="B116" s="22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>1116</v>
       </c>
-      <c r="C116" s="22" t="s">
-        <v>1117</v>
-      </c>
       <c r="D116" s="22" t="s">
         <v>507</v>
       </c>
@@ -10570,10 +10570,10 @@
         <v>25</v>
       </c>
       <c r="N116" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O116" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10627,7 +10627,7 @@
         <v>94</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>507</v>
@@ -10670,7 +10670,7 @@
         <v>95</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>507</v>
@@ -10703,10 +10703,10 @@
         <v>25</v>
       </c>
       <c r="N119" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O119" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10750,10 +10750,10 @@
         <v>25</v>
       </c>
       <c r="N120" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O120" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10797,10 +10797,10 @@
         <v>25</v>
       </c>
       <c r="N121" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O121" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10844,10 +10844,10 @@
         <v>25</v>
       </c>
       <c r="N122" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O122" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10891,10 +10891,10 @@
         <v>25</v>
       </c>
       <c r="N123" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O123" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10981,10 +10981,10 @@
         <v>25</v>
       </c>
       <c r="N125" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O125" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11028,10 +11028,10 @@
         <v>25</v>
       </c>
       <c r="N126" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O126" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11075,10 +11075,10 @@
         <v>25</v>
       </c>
       <c r="N127" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O127" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11122,10 +11122,10 @@
         <v>25</v>
       </c>
       <c r="N128" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O128" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11133,11 +11133,11 @@
         <v>2</v>
       </c>
       <c r="B129" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="C129" s="22" t="s">
-        <v>770</v>
-      </c>
       <c r="D129" s="22" t="s">
         <v>507</v>
       </c>
@@ -11169,10 +11169,10 @@
         <v>25</v>
       </c>
       <c r="N129" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11180,11 +11180,11 @@
         <v>2</v>
       </c>
       <c r="B130" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>1119</v>
       </c>
-      <c r="C130" s="22" t="s">
-        <v>1120</v>
-      </c>
       <c r="D130" s="22" t="s">
         <v>507</v>
       </c>
@@ -11216,10 +11216,10 @@
         <v>25</v>
       </c>
       <c r="N130" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O130" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11227,10 +11227,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="40" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C131" s="22" t="s">
         <v>1121</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>1122</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>507</v>
@@ -11306,10 +11306,10 @@
         <v>25</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11360,7 +11360,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>107</v>
@@ -11396,10 +11396,10 @@
         <v>25</v>
       </c>
       <c r="N134" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O134" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11407,7 +11407,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C135" s="22" t="s">
         <v>108</v>
@@ -11443,10 +11443,10 @@
         <v>25</v>
       </c>
       <c r="N135" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O135" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11497,10 +11497,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C137" s="27" t="s">
         <v>771</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>772</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>507</v>
@@ -11535,7 +11535,7 @@
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
       <c r="P137" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11708,10 +11708,10 @@
         <v>25</v>
       </c>
       <c r="N141" s="22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O141" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11841,10 +11841,10 @@
         <v>25</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O144" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11931,10 +11931,10 @@
         <v>25</v>
       </c>
       <c r="N146" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O146" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11978,10 +11978,10 @@
         <v>25</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O147" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12025,10 +12025,10 @@
         <v>25</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12072,10 +12072,10 @@
         <v>25</v>
       </c>
       <c r="N149" s="22" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O149" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12119,10 +12119,10 @@
         <v>25</v>
       </c>
       <c r="N150" s="22" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O150" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12209,10 +12209,10 @@
         <v>25</v>
       </c>
       <c r="N152" s="22" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O152" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12306,11 +12306,11 @@
         <v>2</v>
       </c>
       <c r="B155" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="C155" s="27" t="s">
         <v>773</v>
       </c>
-      <c r="C155" s="27" t="s">
-        <v>774</v>
-      </c>
       <c r="D155" s="22" t="s">
         <v>507</v>
       </c>
@@ -12342,10 +12342,10 @@
         <v>25</v>
       </c>
       <c r="N155" s="22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O155" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12353,10 +12353,10 @@
         <v>2</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>507</v>
@@ -12389,10 +12389,10 @@
         <v>25</v>
       </c>
       <c r="N156" s="22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O156" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12400,11 +12400,11 @@
         <v>2</v>
       </c>
       <c r="B157" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="C157" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="C157" s="27" t="s">
-        <v>777</v>
-      </c>
       <c r="D157" s="22" t="s">
         <v>507</v>
       </c>
@@ -12436,10 +12436,10 @@
         <v>25</v>
       </c>
       <c r="N157" s="22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O157" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12447,10 +12447,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>507</v>
@@ -12488,11 +12488,11 @@
         <v>2</v>
       </c>
       <c r="B159" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C159" s="27" t="s">
         <v>1126</v>
       </c>
-      <c r="C159" s="27" t="s">
-        <v>1127</v>
-      </c>
       <c r="D159" s="22" t="s">
         <v>507</v>
       </c>
@@ -12524,10 +12524,10 @@
         <v>25</v>
       </c>
       <c r="N159" s="22" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O159" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12535,10 +12535,10 @@
         <v>2</v>
       </c>
       <c r="B160" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C160" s="27" t="s">
         <v>779</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>780</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>507</v>
@@ -12578,7 +12578,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C161" s="27" t="s">
         <v>558</v>
@@ -12621,7 +12621,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C162" s="27" t="s">
         <v>560</v>
@@ -12657,10 +12657,10 @@
         <v>25</v>
       </c>
       <c r="N162" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O162" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12668,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C163" s="27" t="s">
         <v>561</v>
@@ -12833,10 +12833,10 @@
         <v>25</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O166" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12880,10 +12880,10 @@
         <v>25</v>
       </c>
       <c r="N167" s="22" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O167" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12927,10 +12927,10 @@
         <v>25</v>
       </c>
       <c r="N168" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O168" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12981,11 +12981,11 @@
         <v>5</v>
       </c>
       <c r="B170" s="27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C170" s="27" t="s">
         <v>1131</v>
       </c>
-      <c r="C170" s="27" t="s">
-        <v>1132</v>
-      </c>
       <c r="D170" s="22" t="s">
         <v>507</v>
       </c>
@@ -13017,10 +13017,10 @@
         <v>25</v>
       </c>
       <c r="N170" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O170" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13064,10 +13064,10 @@
         <v>25</v>
       </c>
       <c r="N171" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O171" s="22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13110,18 +13110,22 @@
       <c r="M172" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N172" s="11"/>
-      <c r="O172" s="11"/>
+      <c r="N172" s="22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O172" s="22" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="28">
         <v>5</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="42" t="s">
         <v>562</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>563</v>
+        <v>1233</v>
       </c>
       <c r="D173" s="22" t="s">
         <v>507</v>
@@ -13161,10 +13165,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C174" s="22" t="s">
         <v>1133</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>1134</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>507</v>
@@ -13419,10 +13423,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>564</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>565</v>
       </c>
       <c r="D180" s="22" t="s">
         <v>507</v>
@@ -13462,10 +13466,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="C181" s="22" t="s">
         <v>566</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>567</v>
       </c>
       <c r="D181" s="22" t="s">
         <v>507</v>
@@ -13505,10 +13509,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C182" s="22" t="s">
         <v>568</v>
-      </c>
-      <c r="C182" s="22" t="s">
-        <v>569</v>
       </c>
       <c r="D182" s="22" t="s">
         <v>507</v>
@@ -13548,10 +13552,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D183" s="22" t="s">
         <v>507</v>
@@ -13591,10 +13595,10 @@
         <v>5</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>507</v>
@@ -13634,10 +13638,10 @@
         <v>5</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D185" s="22" t="s">
         <v>507</v>
@@ -13677,10 +13681,10 @@
         <v>5</v>
       </c>
       <c r="B186" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C186" s="22" t="s">
         <v>781</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>782</v>
       </c>
       <c r="D186" s="22" t="s">
         <v>507</v>
@@ -13720,10 +13724,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="C187" s="22" t="s">
         <v>783</v>
-      </c>
-      <c r="C187" s="22" t="s">
-        <v>784</v>
       </c>
       <c r="D187" s="22" t="s">
         <v>507</v>
@@ -13763,10 +13767,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="C188" s="22" t="s">
         <v>785</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>786</v>
       </c>
       <c r="D188" s="22" t="s">
         <v>507</v>
@@ -13806,10 +13810,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="C189" s="22" t="s">
         <v>787</v>
-      </c>
-      <c r="C189" s="22" t="s">
-        <v>788</v>
       </c>
       <c r="D189" s="22" t="s">
         <v>507</v>
@@ -13849,10 +13853,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>789</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>790</v>
       </c>
       <c r="D190" s="22" t="s">
         <v>507</v>
@@ -13892,10 +13896,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="C191" s="22" t="s">
         <v>791</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>792</v>
       </c>
       <c r="D191" s="22" t="s">
         <v>507</v>
@@ -13935,10 +13939,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>793</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>794</v>
       </c>
       <c r="D192" s="22" t="s">
         <v>507</v>
@@ -13978,10 +13982,10 @@
         <v>5</v>
       </c>
       <c r="B193" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="C193" s="22" t="s">
         <v>795</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>796</v>
       </c>
       <c r="D193" s="22" t="s">
         <v>507</v>
@@ -14021,10 +14025,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C194" s="22" t="s">
         <v>1138</v>
-      </c>
-      <c r="C194" s="22" t="s">
-        <v>1139</v>
       </c>
       <c r="D194" s="22" t="s">
         <v>507</v>
@@ -14064,10 +14068,10 @@
         <v>5</v>
       </c>
       <c r="B195" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C195" s="22" t="s">
         <v>1140</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>1141</v>
       </c>
       <c r="D195" s="22" t="s">
         <v>507</v>
@@ -14107,10 +14111,10 @@
         <v>5</v>
       </c>
       <c r="B196" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C196" s="22" t="s">
         <v>1142</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>1143</v>
       </c>
       <c r="D196" s="22" t="s">
         <v>507</v>
@@ -14150,10 +14154,10 @@
         <v>5</v>
       </c>
       <c r="B197" s="22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C197" s="22" t="s">
         <v>1144</v>
-      </c>
-      <c r="C197" s="22" t="s">
-        <v>1145</v>
       </c>
       <c r="D197" s="22" t="s">
         <v>507</v>
@@ -14193,10 +14197,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C198" s="22" t="s">
         <v>1146</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>1147</v>
       </c>
       <c r="D198" s="22" t="s">
         <v>507</v>
@@ -14236,10 +14240,10 @@
         <v>5</v>
       </c>
       <c r="B199" s="22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C199" s="22" t="s">
         <v>1148</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>1149</v>
       </c>
       <c r="D199" s="22" t="s">
         <v>507</v>
@@ -14279,10 +14283,10 @@
         <v>5</v>
       </c>
       <c r="B200" s="22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>1150</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>1151</v>
       </c>
       <c r="D200" s="22" t="s">
         <v>507</v>
@@ -14322,10 +14326,10 @@
         <v>5</v>
       </c>
       <c r="B201" s="22" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C201" s="22" t="s">
         <v>1152</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>1153</v>
       </c>
       <c r="D201" s="22" t="s">
         <v>507</v>
@@ -14365,10 +14369,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="22" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C202" s="22" t="s">
         <v>1154</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>1155</v>
       </c>
       <c r="D202" s="22" t="s">
         <v>507</v>
@@ -14408,10 +14412,10 @@
         <v>5</v>
       </c>
       <c r="B203" s="22" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C203" s="22" t="s">
         <v>1156</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>1157</v>
       </c>
       <c r="D203" s="22" t="s">
         <v>507</v>
@@ -14451,10 +14455,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="22" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C204" s="22" t="s">
         <v>1158</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>1159</v>
       </c>
       <c r="D204" s="22" t="s">
         <v>507</v>
@@ -14494,10 +14498,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="22" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>1160</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>1161</v>
       </c>
       <c r="D205" s="22" t="s">
         <v>507</v>
@@ -14537,10 +14541,10 @@
         <v>5</v>
       </c>
       <c r="B206" s="22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C206" s="22" t="s">
         <v>1162</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>1163</v>
       </c>
       <c r="D206" s="22" t="s">
         <v>507</v>
@@ -14580,10 +14584,10 @@
         <v>5</v>
       </c>
       <c r="B207" s="22" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C207" s="22" t="s">
         <v>1164</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>1165</v>
       </c>
       <c r="D207" s="22" t="s">
         <v>507</v>
@@ -14623,10 +14627,10 @@
         <v>5</v>
       </c>
       <c r="B208" s="22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C208" s="22" t="s">
         <v>1166</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>1167</v>
       </c>
       <c r="D208" s="22" t="s">
         <v>507</v>
@@ -14666,10 +14670,10 @@
         <v>5</v>
       </c>
       <c r="B209" s="22" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C209" s="22" t="s">
         <v>1168</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>1169</v>
       </c>
       <c r="D209" s="22" t="s">
         <v>507</v>
@@ -14709,10 +14713,10 @@
         <v>5</v>
       </c>
       <c r="B210" s="22" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C210" s="22" t="s">
         <v>1170</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>1171</v>
       </c>
       <c r="D210" s="22" t="s">
         <v>507</v>
@@ -14752,10 +14756,10 @@
         <v>5</v>
       </c>
       <c r="B211" s="22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C211" s="22" t="s">
         <v>1172</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>1173</v>
       </c>
       <c r="D211" s="22" t="s">
         <v>507</v>
@@ -14795,10 +14799,10 @@
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C212" s="22" t="s">
         <v>1174</v>
-      </c>
-      <c r="C212" s="22" t="s">
-        <v>1175</v>
       </c>
       <c r="D212" s="22" t="s">
         <v>507</v>
@@ -14838,10 +14842,10 @@
         <v>5</v>
       </c>
       <c r="B213" s="22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C213" s="22" t="s">
         <v>1176</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>1177</v>
       </c>
       <c r="D213" s="22" t="s">
         <v>507</v>
@@ -14881,10 +14885,10 @@
         <v>5</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D214" s="22" t="s">
         <v>507</v>
@@ -14924,10 +14928,10 @@
         <v>5</v>
       </c>
       <c r="B215" s="22" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C215" s="22" t="s">
         <v>1179</v>
-      </c>
-      <c r="C215" s="22" t="s">
-        <v>1180</v>
       </c>
       <c r="D215" s="22" t="s">
         <v>507</v>
@@ -14967,10 +14971,10 @@
         <v>5</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D216" s="22" t="s">
         <v>507</v>
@@ -15010,10 +15014,10 @@
         <v>5</v>
       </c>
       <c r="B217" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="C217" s="22" t="s">
         <v>574</v>
-      </c>
-      <c r="C217" s="22" t="s">
-        <v>575</v>
       </c>
       <c r="D217" s="22" t="s">
         <v>507</v>
@@ -15053,10 +15057,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C218" s="22" t="s">
         <v>576</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>577</v>
       </c>
       <c r="D218" s="22" t="s">
         <v>507</v>
@@ -15096,10 +15100,10 @@
         <v>5</v>
       </c>
       <c r="B219" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="C219" s="22" t="s">
         <v>578</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>579</v>
       </c>
       <c r="D219" s="22" t="s">
         <v>507</v>
@@ -15139,11 +15143,11 @@
         <v>1</v>
       </c>
       <c r="B220" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="C220" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="C220" s="22" t="s">
-        <v>798</v>
-      </c>
       <c r="D220" s="22" t="s">
         <v>507</v>
       </c>
@@ -15175,10 +15179,10 @@
         <v>25</v>
       </c>
       <c r="N220" s="22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O220" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15186,10 +15190,10 @@
         <v>5</v>
       </c>
       <c r="B221" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="C221" s="22" t="s">
         <v>799</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>800</v>
       </c>
       <c r="D221" s="22" t="s">
         <v>507</v>
@@ -15447,7 +15451,7 @@
         <v>286</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D227" s="22" t="s">
         <v>466</v>
@@ -16006,7 +16010,7 @@
         <v>311</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D240" s="36" t="s">
         <v>466</v>
@@ -16049,7 +16053,7 @@
         <v>312</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D241" s="36" t="s">
         <v>466</v>
@@ -16092,7 +16096,7 @@
         <v>313</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D242" s="36" t="s">
         <v>466</v>
@@ -16221,7 +16225,7 @@
         <v>318</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D245" s="22" t="s">
         <v>466</v>
@@ -16909,7 +16913,7 @@
         <v>349</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D261" s="22" t="s">
         <v>466</v>
@@ -17124,7 +17128,7 @@
         <v>358</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D266" s="22" t="s">
         <v>466</v>
@@ -17167,7 +17171,7 @@
         <v>359</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D267" s="22" t="s">
         <v>466</v>
@@ -17637,10 +17641,10 @@
         <v>8</v>
       </c>
       <c r="B278" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C278" s="22" t="s">
         <v>588</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>589</v>
       </c>
       <c r="D278" s="22" t="s">
         <v>466</v>
@@ -17680,10 +17684,10 @@
         <v>8</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D279" s="22" t="s">
         <v>466</v>
@@ -17723,10 +17727,10 @@
         <v>8</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D280" s="22" t="s">
         <v>466</v>
@@ -17766,10 +17770,10 @@
         <v>8</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D281" s="22" t="s">
         <v>466</v>
@@ -17809,10 +17813,10 @@
         <v>8</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D282" s="22" t="s">
         <v>466</v>
@@ -17852,10 +17856,10 @@
         <v>8</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D283" s="22" t="s">
         <v>466</v>
@@ -17895,10 +17899,10 @@
         <v>8</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D284" s="22" t="s">
         <v>466</v>
@@ -17938,10 +17942,10 @@
         <v>8</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D285" s="22" t="s">
         <v>466</v>
@@ -17981,10 +17985,10 @@
         <v>8</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D286" s="22" t="s">
         <v>466</v>
@@ -18024,10 +18028,10 @@
         <v>8</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D287" s="22" t="s">
         <v>466</v>
@@ -18067,10 +18071,10 @@
         <v>8</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D288" s="22" t="s">
         <v>466</v>
@@ -18110,10 +18114,10 @@
         <v>8</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C289" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D289" s="22" t="s">
         <v>466</v>
@@ -18153,10 +18157,10 @@
         <v>8</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D290" s="22" t="s">
         <v>466</v>
@@ -18196,10 +18200,10 @@
         <v>8</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D291" s="22" t="s">
         <v>466</v>
@@ -18239,10 +18243,10 @@
         <v>8</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D292" s="22" t="s">
         <v>466</v>
@@ -18282,10 +18286,10 @@
         <v>8</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D293" s="22" t="s">
         <v>466</v>
@@ -18325,10 +18329,10 @@
         <v>8</v>
       </c>
       <c r="B294" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D294" s="22" t="s">
         <v>466</v>
@@ -18368,10 +18372,10 @@
         <v>8</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D295" s="22" t="s">
         <v>466</v>
@@ -18411,10 +18415,10 @@
         <v>8</v>
       </c>
       <c r="B296" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C296" s="22" t="s">
         <v>657</v>
-      </c>
-      <c r="C296" s="22" t="s">
-        <v>658</v>
       </c>
       <c r="D296" s="22" t="s">
         <v>466</v>
@@ -18454,10 +18458,10 @@
         <v>8</v>
       </c>
       <c r="B297" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="C297" s="22" t="s">
         <v>595</v>
-      </c>
-      <c r="C297" s="22" t="s">
-        <v>596</v>
       </c>
       <c r="D297" s="22" t="s">
         <v>466</v>
@@ -18497,10 +18501,10 @@
         <v>8</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D298" s="22" t="s">
         <v>466</v>
@@ -18540,10 +18544,10 @@
         <v>8</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D299" s="22" t="s">
         <v>466</v>
@@ -18583,10 +18587,10 @@
         <v>8</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D300" s="22" t="s">
         <v>466</v>
@@ -18626,10 +18630,10 @@
         <v>8</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D301" s="22" t="s">
         <v>466</v>
@@ -18669,10 +18673,10 @@
         <v>8</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D302" s="22" t="s">
         <v>466</v>
@@ -18712,10 +18716,10 @@
         <v>8</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D303" s="22" t="s">
         <v>466</v>
@@ -18801,7 +18805,7 @@
         <v>381</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D305" s="36" t="s">
         <v>507</v>
@@ -18841,10 +18845,10 @@
         <v>8</v>
       </c>
       <c r="B306" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D306" s="22" t="s">
         <v>466</v>
@@ -18884,10 +18888,10 @@
         <v>8</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D307" s="22" t="s">
         <v>466</v>
@@ -18927,10 +18931,10 @@
         <v>8</v>
       </c>
       <c r="B308" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D308" s="22" t="s">
         <v>466</v>
@@ -18970,10 +18974,10 @@
         <v>8</v>
       </c>
       <c r="B309" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D309" s="22" t="s">
         <v>466</v>
@@ -19056,10 +19060,10 @@
         <v>8</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D311" s="22" t="s">
         <v>466</v>
@@ -19099,10 +19103,10 @@
         <v>8</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D312" s="22" t="s">
         <v>466</v>
@@ -19142,10 +19146,10 @@
         <v>8</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D313" s="22" t="s">
         <v>466</v>
@@ -19185,10 +19189,10 @@
         <v>8</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D314" s="22" t="s">
         <v>466</v>
@@ -19228,10 +19232,10 @@
         <v>8</v>
       </c>
       <c r="B315" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C315" s="22" t="s">
         <v>641</v>
-      </c>
-      <c r="C315" s="22" t="s">
-        <v>642</v>
       </c>
       <c r="D315" s="22" t="s">
         <v>466</v>
@@ -19317,7 +19321,7 @@
         <v>383</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D317" s="22" t="s">
         <v>466</v>
@@ -19787,10 +19791,10 @@
         <v>8</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D328" s="22" t="s">
         <v>466</v>
@@ -19830,10 +19834,10 @@
         <v>8</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D329" s="22" t="s">
         <v>466</v>
@@ -19873,10 +19877,10 @@
         <v>8</v>
       </c>
       <c r="B330" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D330" s="22" t="s">
         <v>466</v>
@@ -19916,10 +19920,10 @@
         <v>8</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D331" s="22" t="s">
         <v>466</v>
@@ -19959,10 +19963,10 @@
         <v>8</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>466</v>
@@ -20002,10 +20006,10 @@
         <v>8</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D333" s="22" t="s">
         <v>466</v>
@@ -20045,10 +20049,10 @@
         <v>8</v>
       </c>
       <c r="B334" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D334" s="22" t="s">
         <v>466</v>
@@ -20088,10 +20092,10 @@
         <v>8</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D335" s="22" t="s">
         <v>466</v>
@@ -20131,10 +20135,10 @@
         <v>8</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D336" s="22" t="s">
         <v>466</v>
@@ -20174,10 +20178,10 @@
         <v>2</v>
       </c>
       <c r="B337" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="C337" s="22" t="s">
         <v>851</v>
-      </c>
-      <c r="C337" s="22" t="s">
-        <v>852</v>
       </c>
       <c r="D337" s="23" t="s">
         <v>507</v>
@@ -20217,10 +20221,10 @@
         <v>2</v>
       </c>
       <c r="B338" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="C338" s="22" t="s">
         <v>853</v>
-      </c>
-      <c r="C338" s="22" t="s">
-        <v>854</v>
       </c>
       <c r="D338" s="23" t="s">
         <v>507</v>
@@ -20260,10 +20264,10 @@
         <v>2</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D339" s="23" t="s">
         <v>507</v>
@@ -20303,10 +20307,10 @@
         <v>2</v>
       </c>
       <c r="B340" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D340" s="23" t="s">
         <v>507</v>
@@ -20346,10 +20350,10 @@
         <v>2</v>
       </c>
       <c r="B341" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="C341" s="22" t="s">
         <v>857</v>
-      </c>
-      <c r="C341" s="22" t="s">
-        <v>858</v>
       </c>
       <c r="D341" s="23" t="s">
         <v>507</v>
@@ -20389,10 +20393,10 @@
         <v>2</v>
       </c>
       <c r="B342" s="22" t="s">
+        <v>858</v>
+      </c>
+      <c r="C342" s="22" t="s">
         <v>859</v>
-      </c>
-      <c r="C342" s="22" t="s">
-        <v>860</v>
       </c>
       <c r="D342" s="23" t="s">
         <v>507</v>
@@ -20432,10 +20436,10 @@
         <v>2</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D343" s="23" t="s">
         <v>507</v>
@@ -20475,10 +20479,10 @@
         <v>2</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D344" s="23" t="s">
         <v>507</v>
@@ -20518,10 +20522,10 @@
         <v>2</v>
       </c>
       <c r="B345" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="C345" s="22" t="s">
         <v>826</v>
-      </c>
-      <c r="C345" s="22" t="s">
-        <v>827</v>
       </c>
       <c r="D345" s="23" t="s">
         <v>507</v>
@@ -20561,10 +20565,10 @@
         <v>2</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D346" s="23" t="s">
         <v>507</v>
@@ -20604,10 +20608,10 @@
         <v>2</v>
       </c>
       <c r="B347" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C347" s="22" t="s">
         <v>863</v>
-      </c>
-      <c r="C347" s="22" t="s">
-        <v>864</v>
       </c>
       <c r="D347" s="23" t="s">
         <v>507</v>
@@ -20647,10 +20651,10 @@
         <v>2</v>
       </c>
       <c r="B348" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="C348" s="22" t="s">
         <v>865</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>866</v>
       </c>
       <c r="D348" s="23" t="s">
         <v>507</v>
@@ -20690,10 +20694,10 @@
         <v>2</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D349" s="23" t="s">
         <v>507</v>
@@ -20733,10 +20737,10 @@
         <v>2</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D350" s="23" t="s">
         <v>507</v>
@@ -20776,10 +20780,10 @@
         <v>2</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D351" s="23" t="s">
         <v>507</v>
@@ -20819,10 +20823,10 @@
         <v>2</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D352" s="23" t="s">
         <v>507</v>
@@ -20862,10 +20866,10 @@
         <v>2</v>
       </c>
       <c r="B353" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="C353" s="22" t="s">
         <v>871</v>
-      </c>
-      <c r="C353" s="22" t="s">
-        <v>872</v>
       </c>
       <c r="D353" s="23" t="s">
         <v>507</v>
@@ -20905,10 +20909,10 @@
         <v>2</v>
       </c>
       <c r="B354" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="C354" s="22" t="s">
         <v>873</v>
-      </c>
-      <c r="C354" s="22" t="s">
-        <v>874</v>
       </c>
       <c r="D354" s="23" t="s">
         <v>507</v>
@@ -20948,10 +20952,10 @@
         <v>2</v>
       </c>
       <c r="B355" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C355" s="22" t="s">
         <v>875</v>
-      </c>
-      <c r="C355" s="22" t="s">
-        <v>876</v>
       </c>
       <c r="D355" s="23" t="s">
         <v>507</v>
@@ -20991,10 +20995,10 @@
         <v>2</v>
       </c>
       <c r="B356" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="C356" s="22" t="s">
         <v>877</v>
-      </c>
-      <c r="C356" s="22" t="s">
-        <v>878</v>
       </c>
       <c r="D356" s="23" t="s">
         <v>507</v>
@@ -21034,10 +21038,10 @@
         <v>2</v>
       </c>
       <c r="B357" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="C357" s="22" t="s">
         <v>879</v>
-      </c>
-      <c r="C357" s="22" t="s">
-        <v>880</v>
       </c>
       <c r="D357" s="23" t="s">
         <v>507</v>
@@ -21077,10 +21081,10 @@
         <v>2</v>
       </c>
       <c r="B358" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="C358" s="22" t="s">
         <v>881</v>
-      </c>
-      <c r="C358" s="22" t="s">
-        <v>882</v>
       </c>
       <c r="D358" s="23" t="s">
         <v>507</v>
@@ -21120,10 +21124,10 @@
         <v>2</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D359" s="23" t="s">
         <v>507</v>
@@ -21163,10 +21167,10 @@
         <v>2</v>
       </c>
       <c r="B360" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C360" s="22" t="s">
         <v>884</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>885</v>
       </c>
       <c r="D360" s="23" t="s">
         <v>507</v>
@@ -21206,10 +21210,10 @@
         <v>2</v>
       </c>
       <c r="B361" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="C361" s="22" t="s">
         <v>886</v>
-      </c>
-      <c r="C361" s="22" t="s">
-        <v>887</v>
       </c>
       <c r="D361" s="23" t="s">
         <v>507</v>
@@ -21249,10 +21253,10 @@
         <v>2</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D362" s="23" t="s">
         <v>507</v>
@@ -21292,10 +21296,10 @@
         <v>2</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D363" s="23" t="s">
         <v>507</v>
@@ -21335,10 +21339,10 @@
         <v>2</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C364" s="22" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D364" s="23" t="s">
         <v>507</v>
@@ -21378,10 +21382,10 @@
         <v>2</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D365" s="23" t="s">
         <v>507</v>
@@ -21421,10 +21425,10 @@
         <v>2</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D366" s="23" t="s">
         <v>507</v>
@@ -21464,10 +21468,10 @@
         <v>2</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D367" s="23" t="s">
         <v>507</v>
@@ -21507,10 +21511,10 @@
         <v>2</v>
       </c>
       <c r="B368" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C368" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D368" s="23" t="s">
         <v>507</v>
@@ -21550,10 +21554,10 @@
         <v>2</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C369" s="22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D369" s="23" t="s">
         <v>507</v>
@@ -21593,10 +21597,10 @@
         <v>2</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C370" s="22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D370" s="23" t="s">
         <v>507</v>
@@ -21636,10 +21640,10 @@
         <v>2</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C371" s="22" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D371" s="23" t="s">
         <v>507</v>
@@ -21679,10 +21683,10 @@
         <v>2</v>
       </c>
       <c r="B372" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="C372" s="22" t="s">
         <v>897</v>
-      </c>
-      <c r="C372" s="22" t="s">
-        <v>898</v>
       </c>
       <c r="D372" s="23" t="s">
         <v>507</v>
@@ -21722,10 +21726,10 @@
         <v>2</v>
       </c>
       <c r="B373" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="C373" s="22" t="s">
         <v>899</v>
-      </c>
-      <c r="C373" s="22" t="s">
-        <v>900</v>
       </c>
       <c r="D373" s="23" t="s">
         <v>507</v>
@@ -21765,10 +21769,10 @@
         <v>2</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C374" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D374" s="23" t="s">
         <v>507</v>
@@ -21808,10 +21812,10 @@
         <v>2</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C375" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D375" s="23" t="s">
         <v>507</v>
@@ -21851,10 +21855,10 @@
         <v>2</v>
       </c>
       <c r="B376" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="C376" s="22" t="s">
         <v>832</v>
-      </c>
-      <c r="C376" s="22" t="s">
-        <v>833</v>
       </c>
       <c r="D376" s="23" t="s">
         <v>507</v>
@@ -21894,10 +21898,10 @@
         <v>2</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C377" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D377" s="23" t="s">
         <v>507</v>
@@ -21937,10 +21941,10 @@
         <v>2</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C378" s="22" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D378" s="23" t="s">
         <v>507</v>
@@ -21980,10 +21984,10 @@
         <v>2</v>
       </c>
       <c r="B379" s="22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C379" s="22" t="s">
         <v>1045</v>
-      </c>
-      <c r="C379" s="22" t="s">
-        <v>1046</v>
       </c>
       <c r="D379" s="23" t="s">
         <v>507</v>
@@ -22023,10 +22027,10 @@
         <v>2</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C380" s="22" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D380" s="23" t="s">
         <v>507</v>
@@ -22066,10 +22070,10 @@
         <v>2</v>
       </c>
       <c r="B381" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C381" s="22" t="s">
         <v>1048</v>
-      </c>
-      <c r="C381" s="22" t="s">
-        <v>1049</v>
       </c>
       <c r="D381" s="23" t="s">
         <v>507</v>
@@ -22109,10 +22113,10 @@
         <v>2</v>
       </c>
       <c r="B382" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="C382" s="22" t="s">
         <v>905</v>
-      </c>
-      <c r="C382" s="22" t="s">
-        <v>906</v>
       </c>
       <c r="D382" s="23" t="s">
         <v>507</v>
@@ -22152,10 +22156,10 @@
         <v>2</v>
       </c>
       <c r="B383" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="C383" s="22" t="s">
         <v>907</v>
-      </c>
-      <c r="C383" s="22" t="s">
-        <v>908</v>
       </c>
       <c r="D383" s="23" t="s">
         <v>507</v>
@@ -22195,10 +22199,10 @@
         <v>2</v>
       </c>
       <c r="B384" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="C384" s="22" t="s">
         <v>909</v>
-      </c>
-      <c r="C384" s="22" t="s">
-        <v>910</v>
       </c>
       <c r="D384" s="23" t="s">
         <v>507</v>
@@ -22238,10 +22242,10 @@
         <v>2</v>
       </c>
       <c r="B385" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="C385" s="22" t="s">
         <v>911</v>
-      </c>
-      <c r="C385" s="22" t="s">
-        <v>912</v>
       </c>
       <c r="D385" s="23" t="s">
         <v>507</v>
@@ -22281,10 +22285,10 @@
         <v>2</v>
       </c>
       <c r="B386" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C386" s="22" t="s">
         <v>913</v>
-      </c>
-      <c r="C386" s="22" t="s">
-        <v>914</v>
       </c>
       <c r="D386" s="23" t="s">
         <v>507</v>
@@ -22324,7 +22328,7 @@
         <v>2</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C387" s="22" t="s">
         <v>112</v>
@@ -22367,10 +22371,10 @@
         <v>2</v>
       </c>
       <c r="B388" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="C388" s="22" t="s">
         <v>804</v>
-      </c>
-      <c r="C388" s="22" t="s">
-        <v>805</v>
       </c>
       <c r="D388" s="23" t="s">
         <v>507</v>
@@ -22410,10 +22414,10 @@
         <v>2</v>
       </c>
       <c r="B389" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C389" s="22" t="s">
         <v>916</v>
-      </c>
-      <c r="C389" s="22" t="s">
-        <v>917</v>
       </c>
       <c r="D389" s="23" t="s">
         <v>507</v>
@@ -22453,7 +22457,7 @@
         <v>2</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C390" s="22" t="s">
         <v>113</v>
@@ -22496,10 +22500,10 @@
         <v>2</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D391" s="23" t="s">
         <v>507</v>
@@ -22539,10 +22543,10 @@
         <v>2</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D392" s="23" t="s">
         <v>507</v>
@@ -22582,7 +22586,7 @@
         <v>2</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C393" s="22" t="s">
         <v>108</v>
@@ -22625,7 +22629,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C394" s="22" t="s">
         <v>107</v>
@@ -22668,10 +22672,10 @@
         <v>2</v>
       </c>
       <c r="B395" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="C395" s="22" t="s">
         <v>923</v>
-      </c>
-      <c r="C395" s="22" t="s">
-        <v>924</v>
       </c>
       <c r="D395" s="23" t="s">
         <v>507</v>
@@ -22711,10 +22715,10 @@
         <v>2</v>
       </c>
       <c r="B396" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="C396" s="22" t="s">
         <v>925</v>
-      </c>
-      <c r="C396" s="22" t="s">
-        <v>926</v>
       </c>
       <c r="D396" s="23" t="s">
         <v>507</v>
@@ -22754,10 +22758,10 @@
         <v>2</v>
       </c>
       <c r="B397" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="C397" s="22" t="s">
         <v>927</v>
-      </c>
-      <c r="C397" s="22" t="s">
-        <v>928</v>
       </c>
       <c r="D397" s="23" t="s">
         <v>507</v>
@@ -22797,10 +22801,10 @@
         <v>2</v>
       </c>
       <c r="B398" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C398" s="22" t="s">
         <v>842</v>
-      </c>
-      <c r="C398" s="22" t="s">
-        <v>843</v>
       </c>
       <c r="D398" s="23" t="s">
         <v>507</v>
@@ -22840,7 +22844,7 @@
         <v>2</v>
       </c>
       <c r="B399" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C399" s="22" t="s">
         <v>552</v>
@@ -22883,10 +22887,10 @@
         <v>2</v>
       </c>
       <c r="B400" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D400" s="23" t="s">
         <v>507</v>
@@ -22926,10 +22930,10 @@
         <v>2</v>
       </c>
       <c r="B401" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="C401" s="22" t="s">
         <v>931</v>
-      </c>
-      <c r="C401" s="22" t="s">
-        <v>932</v>
       </c>
       <c r="D401" s="23" t="s">
         <v>507</v>
@@ -22969,10 +22973,10 @@
         <v>2</v>
       </c>
       <c r="B402" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D402" s="23" t="s">
         <v>507</v>
@@ -23012,7 +23016,7 @@
         <v>2</v>
       </c>
       <c r="B403" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C403" s="22" t="s">
         <v>559</v>
@@ -23055,10 +23059,10 @@
         <v>2</v>
       </c>
       <c r="B404" s="22" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D404" s="23" t="s">
         <v>507</v>
@@ -23098,10 +23102,10 @@
         <v>2</v>
       </c>
       <c r="B405" s="22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D405" s="23" t="s">
         <v>507</v>
@@ -23141,10 +23145,10 @@
         <v>2</v>
       </c>
       <c r="B406" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="C406" s="22" t="s">
         <v>937</v>
-      </c>
-      <c r="C406" s="22" t="s">
-        <v>938</v>
       </c>
       <c r="D406" s="23" t="s">
         <v>507</v>
@@ -23184,10 +23188,10 @@
         <v>2</v>
       </c>
       <c r="B407" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="C407" s="22" t="s">
         <v>939</v>
-      </c>
-      <c r="C407" s="22" t="s">
-        <v>940</v>
       </c>
       <c r="D407" s="23" t="s">
         <v>507</v>
@@ -23227,10 +23231,10 @@
         <v>2</v>
       </c>
       <c r="B408" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D408" s="23" t="s">
         <v>507</v>
@@ -23270,10 +23274,10 @@
         <v>2</v>
       </c>
       <c r="B409" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="C409" s="22" t="s">
         <v>942</v>
-      </c>
-      <c r="C409" s="22" t="s">
-        <v>943</v>
       </c>
       <c r="D409" s="23" t="s">
         <v>507</v>
@@ -23313,10 +23317,10 @@
         <v>2</v>
       </c>
       <c r="B410" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D410" s="23" t="s">
         <v>507</v>
@@ -23356,10 +23360,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D411" s="23" t="s">
         <v>507</v>
@@ -23399,10 +23403,10 @@
         <v>2</v>
       </c>
       <c r="B412" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="C412" s="22" t="s">
         <v>835</v>
-      </c>
-      <c r="C412" s="22" t="s">
-        <v>836</v>
       </c>
       <c r="D412" s="23" t="s">
         <v>507</v>
@@ -23442,10 +23446,10 @@
         <v>2</v>
       </c>
       <c r="B413" s="22" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D413" s="23" t="s">
         <v>507</v>
@@ -23485,10 +23489,10 @@
         <v>2</v>
       </c>
       <c r="B414" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D414" s="23" t="s">
         <v>507</v>
@@ -23528,10 +23532,10 @@
         <v>2</v>
       </c>
       <c r="B415" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D415" s="23" t="s">
         <v>507</v>
@@ -23571,10 +23575,10 @@
         <v>2</v>
       </c>
       <c r="B416" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D416" s="23" t="s">
         <v>507</v>
@@ -23614,10 +23618,10 @@
         <v>4</v>
       </c>
       <c r="B417" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="C417" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="C417" s="22" t="s">
-        <v>744</v>
       </c>
       <c r="D417" s="23" t="s">
         <v>507</v>
@@ -23657,10 +23661,10 @@
         <v>4</v>
       </c>
       <c r="B418" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="C418" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="C418" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="D418" s="23" t="s">
         <v>507</v>
@@ -23700,10 +23704,10 @@
         <v>4</v>
       </c>
       <c r="B419" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C419" s="22" t="s">
         <v>747</v>
-      </c>
-      <c r="C419" s="22" t="s">
-        <v>748</v>
       </c>
       <c r="D419" s="23" t="s">
         <v>507</v>
@@ -23743,10 +23747,10 @@
         <v>4</v>
       </c>
       <c r="B420" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="C420" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="C420" s="22" t="s">
-        <v>750</v>
       </c>
       <c r="D420" s="23" t="s">
         <v>507</v>
@@ -23786,7 +23790,7 @@
         <v>4</v>
       </c>
       <c r="B421" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C421" s="22" t="s">
         <v>541</v>
@@ -23829,10 +23833,10 @@
         <v>4</v>
       </c>
       <c r="B422" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C422" s="22" t="s">
         <v>752</v>
-      </c>
-      <c r="C422" s="22" t="s">
-        <v>753</v>
       </c>
       <c r="D422" s="23" t="s">
         <v>507</v>
@@ -23872,10 +23876,10 @@
         <v>4</v>
       </c>
       <c r="B423" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C423" s="22" t="s">
         <v>754</v>
-      </c>
-      <c r="C423" s="22" t="s">
-        <v>755</v>
       </c>
       <c r="D423" s="23" t="s">
         <v>507</v>
@@ -23915,10 +23919,10 @@
         <v>4</v>
       </c>
       <c r="B424" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="C424" s="22" t="s">
         <v>756</v>
-      </c>
-      <c r="C424" s="22" t="s">
-        <v>757</v>
       </c>
       <c r="D424" s="23" t="s">
         <v>507</v>
@@ -23958,7 +23962,7 @@
         <v>4</v>
       </c>
       <c r="B425" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C425" s="22" t="s">
         <v>542</v>
@@ -24001,10 +24005,10 @@
         <v>4</v>
       </c>
       <c r="B426" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="C426" s="22" t="s">
         <v>759</v>
-      </c>
-      <c r="C426" s="22" t="s">
-        <v>760</v>
       </c>
       <c r="D426" s="23" t="s">
         <v>507</v>
@@ -24044,10 +24048,10 @@
         <v>4</v>
       </c>
       <c r="B427" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="C427" s="22" t="s">
         <v>761</v>
-      </c>
-      <c r="C427" s="22" t="s">
-        <v>762</v>
       </c>
       <c r="D427" s="23" t="s">
         <v>507</v>
@@ -24087,10 +24091,10 @@
         <v>4</v>
       </c>
       <c r="B428" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="C428" s="22" t="s">
         <v>763</v>
-      </c>
-      <c r="C428" s="22" t="s">
-        <v>764</v>
       </c>
       <c r="D428" s="23" t="s">
         <v>507</v>
@@ -24130,10 +24134,10 @@
         <v>4</v>
       </c>
       <c r="B429" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="C429" s="22" t="s">
         <v>765</v>
-      </c>
-      <c r="C429" s="22" t="s">
-        <v>766</v>
       </c>
       <c r="D429" s="23" t="s">
         <v>507</v>
@@ -24173,10 +24177,10 @@
         <v>4</v>
       </c>
       <c r="B430" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="C430" s="22" t="s">
         <v>767</v>
-      </c>
-      <c r="C430" s="22" t="s">
-        <v>768</v>
       </c>
       <c r="D430" s="23" t="s">
         <v>507</v>
@@ -24216,10 +24220,10 @@
         <v>4</v>
       </c>
       <c r="B431" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C431" s="22" t="s">
         <v>1192</v>
-      </c>
-      <c r="C431" s="22" t="s">
-        <v>1193</v>
       </c>
       <c r="D431" s="23" t="s">
         <v>507</v>
@@ -24259,10 +24263,10 @@
         <v>2</v>
       </c>
       <c r="B432" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C432" s="22" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D432" s="23" t="s">
         <v>507</v>
@@ -24302,10 +24306,10 @@
         <v>4</v>
       </c>
       <c r="B433" s="22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C433" s="22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D433" s="23" t="s">
         <v>507</v>
@@ -24345,10 +24349,10 @@
         <v>4</v>
       </c>
       <c r="B434" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C434" s="22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D434" s="23" t="s">
         <v>507</v>
@@ -24388,10 +24392,10 @@
         <v>4</v>
       </c>
       <c r="B435" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="C435" s="22" t="s">
         <v>953</v>
-      </c>
-      <c r="C435" s="22" t="s">
-        <v>954</v>
       </c>
       <c r="D435" s="23" t="s">
         <v>507</v>
@@ -24431,10 +24435,10 @@
         <v>4</v>
       </c>
       <c r="B436" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="C436" s="22" t="s">
         <v>955</v>
-      </c>
-      <c r="C436" s="22" t="s">
-        <v>956</v>
       </c>
       <c r="D436" s="23" t="s">
         <v>507</v>
@@ -24474,10 +24478,10 @@
         <v>4</v>
       </c>
       <c r="B437" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="C437" s="22" t="s">
         <v>957</v>
-      </c>
-      <c r="C437" s="22" t="s">
-        <v>958</v>
       </c>
       <c r="D437" s="23" t="s">
         <v>507</v>
@@ -24517,10 +24521,10 @@
         <v>4</v>
       </c>
       <c r="B438" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="C438" s="22" t="s">
         <v>959</v>
-      </c>
-      <c r="C438" s="22" t="s">
-        <v>960</v>
       </c>
       <c r="D438" s="23" t="s">
         <v>507</v>
@@ -24560,10 +24564,10 @@
         <v>4</v>
       </c>
       <c r="B439" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="C439" s="22" t="s">
         <v>961</v>
-      </c>
-      <c r="C439" s="22" t="s">
-        <v>962</v>
       </c>
       <c r="D439" s="23" t="s">
         <v>507</v>
@@ -24603,10 +24607,10 @@
         <v>4</v>
       </c>
       <c r="B440" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C440" s="22" t="s">
         <v>963</v>
-      </c>
-      <c r="C440" s="22" t="s">
-        <v>964</v>
       </c>
       <c r="D440" s="23" t="s">
         <v>507</v>
@@ -24646,10 +24650,10 @@
         <v>4</v>
       </c>
       <c r="B441" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="C441" s="22" t="s">
         <v>965</v>
-      </c>
-      <c r="C441" s="22" t="s">
-        <v>966</v>
       </c>
       <c r="D441" s="23" t="s">
         <v>507</v>
@@ -24689,10 +24693,10 @@
         <v>4</v>
       </c>
       <c r="B442" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="C442" s="22" t="s">
         <v>967</v>
-      </c>
-      <c r="C442" s="22" t="s">
-        <v>968</v>
       </c>
       <c r="D442" s="23" t="s">
         <v>507</v>
@@ -24732,10 +24736,10 @@
         <v>4</v>
       </c>
       <c r="B443" s="22" t="s">
+        <v>968</v>
+      </c>
+      <c r="C443" s="22" t="s">
         <v>969</v>
-      </c>
-      <c r="C443" s="22" t="s">
-        <v>970</v>
       </c>
       <c r="D443" s="23" t="s">
         <v>507</v>
@@ -24775,10 +24779,10 @@
         <v>4</v>
       </c>
       <c r="B444" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="C444" s="22" t="s">
         <v>971</v>
-      </c>
-      <c r="C444" s="22" t="s">
-        <v>972</v>
       </c>
       <c r="D444" s="23" t="s">
         <v>507</v>
@@ -24818,10 +24822,10 @@
         <v>4</v>
       </c>
       <c r="B445" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="C445" s="22" t="s">
         <v>973</v>
-      </c>
-      <c r="C445" s="22" t="s">
-        <v>974</v>
       </c>
       <c r="D445" s="23" t="s">
         <v>507</v>
@@ -24861,10 +24865,10 @@
         <v>4</v>
       </c>
       <c r="B446" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="C446" s="22" t="s">
         <v>975</v>
-      </c>
-      <c r="C446" s="22" t="s">
-        <v>976</v>
       </c>
       <c r="D446" s="23" t="s">
         <v>507</v>
@@ -24904,10 +24908,10 @@
         <v>4</v>
       </c>
       <c r="B447" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="C447" s="22" t="s">
         <v>977</v>
-      </c>
-      <c r="C447" s="22" t="s">
-        <v>978</v>
       </c>
       <c r="D447" s="23" t="s">
         <v>507</v>
@@ -24947,10 +24951,10 @@
         <v>4</v>
       </c>
       <c r="B448" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="C448" s="22" t="s">
         <v>979</v>
-      </c>
-      <c r="C448" s="22" t="s">
-        <v>980</v>
       </c>
       <c r="D448" s="23" t="s">
         <v>507</v>
@@ -24990,10 +24994,10 @@
         <v>4</v>
       </c>
       <c r="B449" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="C449" s="22" t="s">
         <v>981</v>
-      </c>
-      <c r="C449" s="22" t="s">
-        <v>982</v>
       </c>
       <c r="D449" s="23" t="s">
         <v>507</v>
@@ -25033,10 +25037,10 @@
         <v>4</v>
       </c>
       <c r="B450" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C450" s="22" t="s">
         <v>983</v>
-      </c>
-      <c r="C450" s="22" t="s">
-        <v>984</v>
       </c>
       <c r="D450" s="23" t="s">
         <v>507</v>
@@ -25076,10 +25080,10 @@
         <v>4</v>
       </c>
       <c r="B451" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="C451" s="22" t="s">
         <v>985</v>
-      </c>
-      <c r="C451" s="22" t="s">
-        <v>986</v>
       </c>
       <c r="D451" s="23" t="s">
         <v>507</v>
@@ -25119,10 +25123,10 @@
         <v>4</v>
       </c>
       <c r="B452" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C452" s="22" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D452" s="23" t="s">
         <v>507</v>
@@ -25162,10 +25166,10 @@
         <v>4</v>
       </c>
       <c r="B453" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="C453" s="22" t="s">
         <v>988</v>
-      </c>
-      <c r="C453" s="22" t="s">
-        <v>989</v>
       </c>
       <c r="D453" s="23" t="s">
         <v>507</v>
@@ -25205,10 +25209,10 @@
         <v>4</v>
       </c>
       <c r="B454" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="C454" s="22" t="s">
         <v>990</v>
-      </c>
-      <c r="C454" s="22" t="s">
-        <v>991</v>
       </c>
       <c r="D454" s="23" t="s">
         <v>507</v>
@@ -25248,10 +25252,10 @@
         <v>4</v>
       </c>
       <c r="B455" s="22" t="s">
+        <v>991</v>
+      </c>
+      <c r="C455" s="22" t="s">
         <v>992</v>
-      </c>
-      <c r="C455" s="22" t="s">
-        <v>993</v>
       </c>
       <c r="D455" s="23" t="s">
         <v>507</v>
@@ -25291,10 +25295,10 @@
         <v>4</v>
       </c>
       <c r="B456" s="22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C456" s="22" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D456" s="23" t="s">
         <v>507</v>
@@ -25334,10 +25338,10 @@
         <v>4</v>
       </c>
       <c r="B457" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="C457" s="22" t="s">
         <v>995</v>
-      </c>
-      <c r="C457" s="22" t="s">
-        <v>996</v>
       </c>
       <c r="D457" s="23" t="s">
         <v>507</v>
@@ -25377,10 +25381,10 @@
         <v>4</v>
       </c>
       <c r="B458" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="C458" s="22" t="s">
         <v>997</v>
-      </c>
-      <c r="C458" s="22" t="s">
-        <v>998</v>
       </c>
       <c r="D458" s="23" t="s">
         <v>507</v>
@@ -25420,10 +25424,10 @@
         <v>4</v>
       </c>
       <c r="B459" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="C459" s="22" t="s">
         <v>999</v>
-      </c>
-      <c r="C459" s="22" t="s">
-        <v>1000</v>
       </c>
       <c r="D459" s="23" t="s">
         <v>507</v>
@@ -25463,10 +25467,10 @@
         <v>4</v>
       </c>
       <c r="B460" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C460" s="22" t="s">
         <v>1001</v>
-      </c>
-      <c r="C460" s="22" t="s">
-        <v>1002</v>
       </c>
       <c r="D460" s="23" t="s">
         <v>507</v>
@@ -25506,10 +25510,10 @@
         <v>4</v>
       </c>
       <c r="B461" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C461" s="22" t="s">
         <v>1003</v>
-      </c>
-      <c r="C461" s="22" t="s">
-        <v>1004</v>
       </c>
       <c r="D461" s="23" t="s">
         <v>507</v>
@@ -25549,10 +25553,10 @@
         <v>4</v>
       </c>
       <c r="B462" s="22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C462" s="22" t="s">
         <v>1005</v>
-      </c>
-      <c r="C462" s="22" t="s">
-        <v>1006</v>
       </c>
       <c r="D462" s="23" t="s">
         <v>507</v>
@@ -25638,7 +25642,7 @@
         <v>163</v>
       </c>
       <c r="C464" s="22" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D464" s="22" t="s">
         <v>466</v>
@@ -25724,7 +25728,7 @@
         <v>166</v>
       </c>
       <c r="C466" s="22" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D466" s="22" t="s">
         <v>466</v>
@@ -25767,7 +25771,7 @@
         <v>167</v>
       </c>
       <c r="C467" s="22" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D467" s="22" t="s">
         <v>466</v>
@@ -25810,7 +25814,7 @@
         <v>168</v>
       </c>
       <c r="C468" s="22" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D468" s="22" t="s">
         <v>466</v>
@@ -25896,7 +25900,7 @@
         <v>171</v>
       </c>
       <c r="C470" s="22" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D470" s="22" t="s">
         <v>466</v>
@@ -25939,7 +25943,7 @@
         <v>172</v>
       </c>
       <c r="C471" s="22" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D471" s="22" t="s">
         <v>466</v>
@@ -26025,7 +26029,7 @@
         <v>175</v>
       </c>
       <c r="C473" s="22" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D473" s="22" t="s">
         <v>466</v>
@@ -26111,7 +26115,7 @@
         <v>178</v>
       </c>
       <c r="C475" s="22" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D475" s="22" t="s">
         <v>466</v>
@@ -26154,7 +26158,7 @@
         <v>179</v>
       </c>
       <c r="C476" s="22" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D476" s="22" t="s">
         <v>466</v>
@@ -26283,7 +26287,7 @@
         <v>184</v>
       </c>
       <c r="C479" s="22" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D479" s="22" t="s">
         <v>466</v>
@@ -26326,7 +26330,7 @@
         <v>185</v>
       </c>
       <c r="C480" s="22" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D480" s="22" t="s">
         <v>466</v>
@@ -26455,7 +26459,7 @@
         <v>190</v>
       </c>
       <c r="C483" s="22" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D483" s="22" t="s">
         <v>466</v>
@@ -26498,7 +26502,7 @@
         <v>191</v>
       </c>
       <c r="C484" s="22" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D484" s="22" t="s">
         <v>466</v>
@@ -26627,7 +26631,7 @@
         <v>196</v>
       </c>
       <c r="C487" s="22" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D487" s="22" t="s">
         <v>466</v>
@@ -26839,10 +26843,10 @@
         <v>454</v>
       </c>
       <c r="B492" s="22" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C492" s="22" t="s">
         <v>1210</v>
-      </c>
-      <c r="C492" s="22" t="s">
-        <v>1211</v>
       </c>
       <c r="D492" s="22" t="s">
         <v>466</v>
@@ -27100,7 +27104,7 @@
         <v>214</v>
       </c>
       <c r="C498" s="22" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D498" s="22" t="s">
         <v>466</v>
@@ -27229,7 +27233,7 @@
         <v>217</v>
       </c>
       <c r="C501" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D501" s="22" t="s">
         <v>466</v>
@@ -27527,10 +27531,10 @@
         <v>2</v>
       </c>
       <c r="B508" s="22" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C508" s="22" t="s">
         <v>1213</v>
-      </c>
-      <c r="C508" s="22" t="s">
-        <v>1214</v>
       </c>
       <c r="D508" s="22" t="s">
         <v>466</v>
@@ -27556,10 +27560,10 @@
         <v>2</v>
       </c>
       <c r="B509" s="22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C509" s="22" t="s">
         <v>1215</v>
-      </c>
-      <c r="C509" s="22" t="s">
-        <v>1216</v>
       </c>
       <c r="D509" s="22" t="s">
         <v>466</v>
@@ -27585,10 +27589,10 @@
         <v>2</v>
       </c>
       <c r="B510" s="22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C510" s="22" t="s">
         <v>1217</v>
-      </c>
-      <c r="C510" s="22" t="s">
-        <v>1218</v>
       </c>
       <c r="D510" s="22" t="s">
         <v>466</v>
@@ -27614,10 +27618,10 @@
         <v>2</v>
       </c>
       <c r="B511" s="22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C511" s="22" t="s">
         <v>1219</v>
-      </c>
-      <c r="C511" s="22" t="s">
-        <v>1220</v>
       </c>
       <c r="D511" s="22" t="s">
         <v>466</v>
@@ -27646,7 +27650,7 @@
         <v>227</v>
       </c>
       <c r="C512" s="22" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D512" s="22" t="s">
         <v>466</v>
@@ -27775,7 +27779,7 @@
         <v>231</v>
       </c>
       <c r="C515" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D515" s="22" t="s">
         <v>466</v>
@@ -28119,7 +28123,7 @@
         <v>245</v>
       </c>
       <c r="C523" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D523" s="22" t="s">
         <v>466</v>
@@ -28162,7 +28166,7 @@
         <v>246</v>
       </c>
       <c r="C524" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D524" s="22" t="s">
         <v>466</v>
@@ -28205,7 +28209,7 @@
         <v>247</v>
       </c>
       <c r="C525" s="22" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D525" s="22" t="s">
         <v>466</v>
@@ -28936,7 +28940,7 @@
         <v>467</v>
       </c>
       <c r="C542" s="22" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D542" s="22" t="s">
         <v>466</v>
@@ -29323,7 +29327,7 @@
         <v>485</v>
       </c>
       <c r="C551" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D551" s="22" t="s">
         <v>466</v>
@@ -29402,10 +29406,10 @@
         <v>8</v>
       </c>
       <c r="B553" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C553" s="22" t="s">
         <v>586</v>
-      </c>
-      <c r="C553" s="22" t="s">
-        <v>587</v>
       </c>
       <c r="D553" s="22" t="s">
         <v>466</v>
@@ -29443,10 +29447,10 @@
         <v>3</v>
       </c>
       <c r="B554" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C554" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D554" s="22" t="s">
         <v>159</v>
@@ -29484,10 +29488,10 @@
         <v>3</v>
       </c>
       <c r="B555" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C555" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D555" s="22" t="s">
         <v>159</v>
@@ -31059,7 +31063,7 @@
         <v>453</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31067,7 +31071,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31075,7 +31079,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31083,7 +31087,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31091,7 +31095,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31099,7 +31103,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31107,7 +31111,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31115,7 +31119,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31123,7 +31127,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31148,7 +31152,7 @@
         <v>457</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31165,7 +31169,7 @@
         <v>507</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31173,7 +31177,7 @@
         <v>466</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31181,15 +31185,15 @@
         <v>159</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31224,10 +31228,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1041</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31235,7 +31239,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31243,7 +31247,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31254,63 +31258,63 @@
         <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD808A-6FE6-421D-A646-5558835A16D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F4E0E-8AEF-46E8-A15F-94E2B08BC833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5314,7 +5314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N173" sqref="N173"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13164,7 +13164,7 @@
       <c r="A174" s="28">
         <v>5</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="42" t="s">
         <v>1132</v>
       </c>
       <c r="C174" s="22" t="s">
@@ -13207,7 +13207,7 @@
       <c r="A175" s="28">
         <v>5</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="42" t="s">
         <v>58</v>
       </c>
       <c r="C175" s="22" t="s">
@@ -13250,7 +13250,7 @@
       <c r="A176" s="28">
         <v>5</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C176" s="22" t="s">

--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D2D17-5C84-4C85-AF1F-2E3688DC2883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06FDB7D-4F80-4D74-AF0E-8A068F523E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7275" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7301" uniqueCount="1235">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5317,7 +5317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N228" sqref="N228:O229"/>
+      <selection pane="bottomLeft" activeCell="N243" sqref="N243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15647,8 +15647,12 @@
       <c r="M230" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N230" s="11"/>
-      <c r="O230" s="11"/>
+      <c r="N230" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O230" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="30">
@@ -15690,8 +15694,12 @@
       <c r="M231" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N231" s="11"/>
-      <c r="O231" s="11"/>
+      <c r="N231" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O231" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="30">
@@ -15733,8 +15741,12 @@
       <c r="M232" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N232" s="11"/>
-      <c r="O232" s="11"/>
+      <c r="N232" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O232" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="30">
@@ -15776,8 +15788,12 @@
       <c r="M233" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N233" s="11"/>
-      <c r="O233" s="11"/>
+      <c r="N233" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O233" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="30">
@@ -15819,8 +15835,12 @@
       <c r="M234" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
+      <c r="N234" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O234" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="30">
@@ -15862,8 +15882,12 @@
       <c r="M235" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N235" s="11"/>
-      <c r="O235" s="11"/>
+      <c r="N235" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O235" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="30">
@@ -15905,8 +15929,12 @@
       <c r="M236" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N236" s="11"/>
-      <c r="O236" s="11"/>
+      <c r="N236" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O236" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="30">
@@ -15948,8 +15976,12 @@
       <c r="M237" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N237" s="11"/>
-      <c r="O237" s="11"/>
+      <c r="N237" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O237" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="30">
@@ -15991,8 +16023,12 @@
       <c r="M238" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N238" s="11"/>
-      <c r="O238" s="11"/>
+      <c r="N238" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O238" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="30">
@@ -16034,8 +16070,12 @@
       <c r="M239" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N239" s="11"/>
-      <c r="O239" s="11"/>
+      <c r="N239" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O239" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="30">
@@ -16077,8 +16117,12 @@
       <c r="M240" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N240" s="11"/>
-      <c r="O240" s="11"/>
+      <c r="N240" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O240" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="241" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="30">
@@ -16120,8 +16164,12 @@
       <c r="M241" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N241" s="11"/>
-      <c r="O241" s="11"/>
+      <c r="N241" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O241" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="242" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="30">
@@ -16163,8 +16211,12 @@
       <c r="M242" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N242" s="11"/>
-      <c r="O242" s="11"/>
+      <c r="N242" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O242" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="243" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="30">

--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06FDB7D-4F80-4D74-AF0E-8A068F523E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820A603-4AD6-44E1-A97F-3985A333B204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7301" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7351" uniqueCount="1235">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5316,8 +5316,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N243" sqref="N243"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N267" sqref="N267:O267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16258,8 +16258,12 @@
       <c r="M243" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N243" s="11"/>
-      <c r="O243" s="11"/>
+      <c r="N243" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O243" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="244" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="30">
@@ -16301,8 +16305,12 @@
       <c r="M244" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N244" s="11"/>
-      <c r="O244" s="11"/>
+      <c r="N244" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O244" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="245" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="30">
@@ -16344,8 +16352,12 @@
       <c r="M245" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N245" s="11"/>
-      <c r="O245" s="11"/>
+      <c r="N245" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O245" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="246" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="30">
@@ -16387,8 +16399,12 @@
       <c r="M246" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N246" s="11"/>
-      <c r="O246" s="11"/>
+      <c r="N246" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O246" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="247" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="30">
@@ -16430,8 +16446,12 @@
       <c r="M247" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N247" s="11"/>
-      <c r="O247" s="11"/>
+      <c r="N247" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O247" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="30">
@@ -16473,8 +16493,12 @@
       <c r="M248" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N248" s="11"/>
-      <c r="O248" s="11"/>
+      <c r="N248" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O248" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="30">
@@ -16516,8 +16540,12 @@
       <c r="M249" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N249" s="11"/>
-      <c r="O249" s="11"/>
+      <c r="N249" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O249" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="30">
@@ -16559,8 +16587,12 @@
       <c r="M250" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N250" s="11"/>
-      <c r="O250" s="11"/>
+      <c r="N250" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O250" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="30">
@@ -16602,8 +16634,12 @@
       <c r="M251" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N251" s="11"/>
-      <c r="O251" s="11"/>
+      <c r="N251" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O251" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="30">
@@ -16645,8 +16681,12 @@
       <c r="M252" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N252" s="11"/>
-      <c r="O252" s="11"/>
+      <c r="N252" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O252" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="30">
@@ -16688,8 +16728,12 @@
       <c r="M253" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N253" s="11"/>
-      <c r="O253" s="11"/>
+      <c r="N253" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O253" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="29">
@@ -16731,8 +16775,12 @@
       <c r="M254" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N254" s="11"/>
-      <c r="O254" s="11"/>
+      <c r="N254" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O254" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="255" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="30">
@@ -16774,8 +16822,12 @@
       <c r="M255" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N255" s="11"/>
-      <c r="O255" s="11"/>
+      <c r="N255" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O255" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="256" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="30">
@@ -16817,8 +16869,12 @@
       <c r="M256" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N256" s="11"/>
-      <c r="O256" s="11"/>
+      <c r="N256" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O256" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="30">
@@ -16860,8 +16916,12 @@
       <c r="M257" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N257" s="11"/>
-      <c r="O257" s="11"/>
+      <c r="N257" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O257" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="30">
@@ -16903,8 +16963,12 @@
       <c r="M258" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N258" s="11"/>
-      <c r="O258" s="11"/>
+      <c r="N258" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O258" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="30">
@@ -16946,8 +17010,12 @@
       <c r="M259" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N259" s="11"/>
-      <c r="O259" s="11"/>
+      <c r="N259" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O259" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="30">
@@ -16989,8 +17057,12 @@
       <c r="M260" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N260" s="11"/>
-      <c r="O260" s="11"/>
+      <c r="N260" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O260" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="30">
@@ -17032,8 +17104,12 @@
       <c r="M261" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N261" s="11"/>
-      <c r="O261" s="11"/>
+      <c r="N261" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O261" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="30">
@@ -17075,8 +17151,12 @@
       <c r="M262" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N262" s="11"/>
-      <c r="O262" s="11"/>
+      <c r="N262" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O262" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="30">
@@ -17118,8 +17198,12 @@
       <c r="M263" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N263" s="11"/>
-      <c r="O263" s="11"/>
+      <c r="N263" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O263" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="29">
@@ -17161,8 +17245,12 @@
       <c r="M264" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N264" s="11"/>
-      <c r="O264" s="11"/>
+      <c r="N264" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O264" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="30">
@@ -17204,8 +17292,12 @@
       <c r="M265" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N265" s="11"/>
-      <c r="O265" s="11"/>
+      <c r="N265" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O265" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="30">
@@ -17247,8 +17339,12 @@
       <c r="M266" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N266" s="11"/>
-      <c r="O266" s="11"/>
+      <c r="N266" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O266" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="30">
@@ -17290,8 +17386,12 @@
       <c r="M267" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N267" s="11"/>
-      <c r="O267" s="11"/>
+      <c r="N267" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O267" s="22" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="30">
@@ -30938,9 +31038,9 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N248:W250">
+  <conditionalFormatting sqref="P248:W250">
     <cfRule type="containsText" dxfId="33" priority="133" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N248)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248:G250">
@@ -31107,7 +31207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D231E93-822A-41C5-B72A-B0566D93B022}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>

--- a/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
+++ b/1.0.4-rc/Validatiematrix 1.1 Voortgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78058280-3A36-4F2B-9714-DFE477D22E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CED3FD-3B4E-450D-AA0E-38566F350F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="1235">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5319,8 +5319,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N271" sqref="N271:O271"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N278" sqref="N278:O278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17620,8 +17620,12 @@
       <c r="M272" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N272" s="11"/>
-      <c r="O272" s="11"/>
+      <c r="N272" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O272" s="22" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="30">
@@ -17663,14 +17667,18 @@
       <c r="M273" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N273" s="11"/>
-      <c r="O273" s="11"/>
+      <c r="N273" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O273" s="22" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="30">
         <v>8</v>
       </c>
-      <c r="B274" s="22" t="s">
+      <c r="B274" s="44" t="s">
         <v>369</v>
       </c>
       <c r="C274" s="22" t="s">
@@ -17713,7 +17721,7 @@
       <c r="A275" s="30">
         <v>8</v>
       </c>
-      <c r="B275" s="22" t="s">
+      <c r="B275" s="44" t="s">
         <v>371</v>
       </c>
       <c r="C275" s="22" t="s">
@@ -17792,8 +17800,12 @@
       <c r="M276" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N276" s="11"/>
-      <c r="O276" s="11"/>
+      <c r="N276" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O276" s="22" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="30">
@@ -17835,8 +17847,12 @@
       <c r="M277" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N277" s="11"/>
-      <c r="O277" s="11"/>
+      <c r="N277" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O277" s="22" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="30">
@@ -17878,8 +17894,12 @@
       <c r="M278" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N278" s="11"/>
-      <c r="O278" s="11"/>
+      <c r="N278" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O278" s="22" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="30">
